--- a/Aktivity Planning.xlsx
+++ b/Aktivity Planning.xlsx
@@ -269,12 +269,6 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>Pembuatan Master Karyawan</t>
-  </si>
-  <si>
-    <t>Membuat Fungsi CRUD Karyawan</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -356,18 +350,12 @@
     <t>Pembuatan Master Customer Member</t>
   </si>
   <si>
-    <t>Pembuatan Master Jadwal Karyawan</t>
-  </si>
-  <si>
     <t>Pembuatan Master Supplier</t>
   </si>
   <si>
     <t>4.12</t>
   </si>
   <si>
-    <t>Pembuatan Register User</t>
-  </si>
-  <si>
     <t>4.13</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>Membuat Fungsi CRUD Customer Member</t>
   </si>
   <si>
-    <t>Membuat Fungsi CRUD Jadwal Karyawan</t>
-  </si>
-  <si>
     <t>Membuat Fungsi CRUD Supplier</t>
   </si>
   <si>
@@ -426,6 +411,21 @@
   </si>
   <si>
     <t>Membuat Transaksi Booking Penjualan</t>
+  </si>
+  <si>
+    <t>Pembuatan Master User</t>
+  </si>
+  <si>
+    <t>Pembuatan Master Role</t>
+  </si>
+  <si>
+    <t>Membuat Fungsi CRUD Role</t>
+  </si>
+  <si>
+    <t>Pembuatan Master User Login</t>
+  </si>
+  <si>
+    <t>Membuat Fungsi CRUD User Login</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="General_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +540,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1093,7 +1100,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1327,6 +1334,82 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,88 +1458,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1499,7 +1512,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1608,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1713,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1763,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1819,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74C4723-72D5-4C3F-BE7A-542E10D82DB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C74C4723-72D5-4C3F-BE7A-542E10D82DB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1875,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60A5D9E-6FCD-43FD-89D1-E58134E2C588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A60A5D9E-6FCD-43FD-89D1-E58134E2C588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1931,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BED273-6B50-4C11-ADEF-23C647B20346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40BED273-6B50-4C11-ADEF-23C647B20346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1987,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120E6C06-3A62-4D37-965E-1FAE8C06ABB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120E6C06-3A62-4D37-965E-1FAE8C06ABB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2043,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C708164-4098-4DD4-BF00-F40AE26F378C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C708164-4098-4DD4-BF00-F40AE26F378C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,16 +2090,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
+      <xdr:colOff>192768</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>113393</xdr:rowOff>
+      <xdr:rowOff>102053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE56D1F-E8E0-452C-B7FB-4CD62B1D5C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECE56D1F-E8E0-452C-B7FB-4CD62B1D5C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9502321" y="5090273"/>
-          <a:ext cx="873125" cy="12406"/>
+          <a:ext cx="861786" cy="1066"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2142,7 +2155,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FC60C2-7EFB-42F4-B327-40FD52458785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0FC60C2-7EFB-42F4-B327-40FD52458785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2211,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238CCE78-70D4-447B-9994-FA99DDE25D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{238CCE78-70D4-447B-9994-FA99DDE25D7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2267,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47689869-9092-49AA-81BD-525CF33953A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47689869-9092-49AA-81BD-525CF33953A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2323,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D92E2D1-E4DE-40A6-9EF6-282734F81900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D92E2D1-E4DE-40A6-9EF6-282734F81900}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2379,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C080BEC-4E55-4FED-960A-529CFA70A522}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C080BEC-4E55-4FED-960A-529CFA70A522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,29 +2422,29 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>22547</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>192768</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>249464</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>102053</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA46E423-F19F-47F0-9486-43EBCFC37600}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA46E423-F19F-47F0-9486-43EBCFC37600}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12393708" y="7426032"/>
-          <a:ext cx="873256" cy="1200"/>
+        <a:xfrm flipV="1">
+          <a:off x="12393708" y="7415893"/>
+          <a:ext cx="1156738" cy="10139"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2462,14 +2475,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>90315</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>99787</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
@@ -2478,7 +2491,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,8 +2499,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19578918" y="8835278"/>
-          <a:ext cx="3176307" cy="0"/>
+          <a:off x="22043172" y="9557817"/>
+          <a:ext cx="3116436" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2518,14 +2531,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>113008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>124733</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>113008</xdr:rowOff>
     </xdr:to>
@@ -2534,7 +2547,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECF81F9-55AA-47B9-ABA1-AC2B193DA471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ECF81F9-55AA-47B9-ABA1-AC2B193DA471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2542,8 +2555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21078825" y="9037933"/>
-          <a:ext cx="3209925" cy="0"/>
+          <a:off x="22020893" y="9762740"/>
+          <a:ext cx="3163661" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2574,32 +2587,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>80720</xdr:rowOff>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>147411</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>113008</xdr:rowOff>
+      <xdr:rowOff>114738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0185C560-0BC8-4232-A9BB-1E8BC6135245}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0185C560-0BC8-4232-A9BB-1E8BC6135245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21078825" y="9196145"/>
-          <a:ext cx="3495675" cy="32288"/>
+        <a:xfrm flipV="1">
+          <a:off x="22020893" y="9955893"/>
+          <a:ext cx="3186339" cy="1345"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2646,7 +2659,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1924D62F-7BC3-48F5-BF79-0ED190205D3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1924D62F-7BC3-48F5-BF79-0ED190205D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,32 +2699,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>56697</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>96864</xdr:rowOff>
+      <xdr:rowOff>62848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>16144</xdr:colOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>170089</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>96865</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253B87C1-AE0B-407D-AC19-687030286A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{253B87C1-AE0B-407D-AC19-687030286A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="24574500" y="9783789"/>
-          <a:ext cx="1121044" cy="1"/>
+        <a:xfrm>
+          <a:off x="26658661" y="10494991"/>
+          <a:ext cx="2165803" cy="5188"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2758,7 +2771,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D50554-37D4-4173-A48A-74FFF6832E62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54D50554-37D4-4173-A48A-74FFF6832E62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2827,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C080BEC-4E55-4FED-960A-529CFA70A522}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C080BEC-4E55-4FED-960A-529CFA70A522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,23 +2867,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>16144</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>80720</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106858</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>113008</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,8 +2891,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17142094" y="8053145"/>
-          <a:ext cx="1736456" cy="32288"/>
+          <a:off x="14110876" y="8392416"/>
+          <a:ext cx="5358678" cy="9995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2910,23 +2923,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>16144</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>96865</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106858</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>16144</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>113008</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,8 +2947,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18018394" y="8259790"/>
-          <a:ext cx="1095375" cy="16143"/>
+          <a:off x="14110876" y="8578650"/>
+          <a:ext cx="5404035" cy="27868"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2966,23 +2979,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>96865</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>113009</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>147411</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101669</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,8 +3003,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18002250" y="8450290"/>
-          <a:ext cx="1543050" cy="16144"/>
+          <a:off x="16407947" y="8776607"/>
+          <a:ext cx="5465535" cy="10955"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3022,23 +3035,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11340</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90422</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47689869-9092-49AA-81BD-525CF33953A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47689869-9092-49AA-81BD-525CF33953A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10875818" y="8033781"/>
+          <a:ext cx="865909" cy="1855"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>16198</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>192768</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA46E423-F19F-47F0-9486-43EBCFC37600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13090394" y="7623791"/>
+          <a:ext cx="890945" cy="7548"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>21188</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>197758</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA46E423-F19F-47F0-9486-43EBCFC37600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13095384" y="7810209"/>
+          <a:ext cx="890945" cy="7548"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>102054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>249465</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47689869-9092-49AA-81BD-525CF33953A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,8 +3227,120 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10965090" y="6451761"/>
-          <a:ext cx="735880" cy="292"/>
+          <a:off x="24894722" y="8198304"/>
+          <a:ext cx="1956707" cy="16330"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>50346</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117997</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80330EA6-A272-480F-9FA2-E076F4F1BF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16424275" y="8980714"/>
+          <a:ext cx="5415189" cy="15944"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>112034</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>209098</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47689869-9092-49AA-81BD-525CF33953A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24854355" y="6445705"/>
+          <a:ext cx="1956707" cy="16330"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3344,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:GC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,10 +3798,10 @@
       <c r="BE3" s="9"/>
     </row>
     <row r="4" spans="1:96" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="6"/>
@@ -3772,230 +4065,230 @@
       <c r="AD12" s="34"/>
       <c r="AE12" s="34"/>
       <c r="AF12" s="34"/>
-      <c r="AR12" s="107"/>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="107"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="107"/>
-      <c r="AW12" s="107"/>
-      <c r="AX12" s="107"/>
-      <c r="AY12" s="107"/>
-      <c r="AZ12" s="107"/>
-      <c r="BA12" s="107"/>
-      <c r="BB12" s="107"/>
-      <c r="BC12" s="107"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="104"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="104"/>
+      <c r="AV12" s="104"/>
+      <c r="AW12" s="104"/>
+      <c r="AX12" s="104"/>
+      <c r="AY12" s="104"/>
+      <c r="AZ12" s="104"/>
+      <c r="BA12" s="104"/>
+      <c r="BB12" s="104"/>
+      <c r="BC12" s="104"/>
     </row>
     <row r="13" spans="1:96" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="108"/>
-      <c r="C13" s="111" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK13" s="118"/>
+      <c r="AL13" s="118"/>
+      <c r="AM13" s="118"/>
+      <c r="AN13" s="118"/>
+      <c r="AO13" s="118"/>
+      <c r="AP13" s="118"/>
+      <c r="AQ13" s="118"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="118"/>
+      <c r="BB13" s="118"/>
+      <c r="BC13" s="118"/>
+      <c r="BD13" s="118"/>
+      <c r="BE13" s="118"/>
+      <c r="BF13" s="118"/>
+      <c r="BG13" s="118"/>
+      <c r="BH13" s="118"/>
+      <c r="BI13" s="118"/>
+      <c r="BJ13" s="118"/>
+      <c r="BK13" s="118"/>
+      <c r="BL13" s="118"/>
+      <c r="BM13" s="119"/>
+      <c r="BN13" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO13" s="98"/>
-      <c r="BP13" s="98"/>
-      <c r="BQ13" s="98"/>
-      <c r="BR13" s="98"/>
-      <c r="BS13" s="98"/>
-      <c r="BT13" s="98"/>
-      <c r="BU13" s="98"/>
-      <c r="BV13" s="98"/>
-      <c r="BW13" s="98"/>
-      <c r="BX13" s="98"/>
-      <c r="BY13" s="98"/>
-      <c r="BZ13" s="98"/>
-      <c r="CA13" s="98"/>
-      <c r="CB13" s="98"/>
-      <c r="CC13" s="98"/>
-      <c r="CD13" s="98"/>
-      <c r="CE13" s="98"/>
-      <c r="CF13" s="98"/>
-      <c r="CG13" s="98"/>
-      <c r="CH13" s="98"/>
-      <c r="CI13" s="98"/>
-      <c r="CJ13" s="98"/>
-      <c r="CK13" s="98"/>
-      <c r="CL13" s="98"/>
-      <c r="CM13" s="98"/>
-      <c r="CN13" s="98"/>
-      <c r="CO13" s="98"/>
-      <c r="CP13" s="98"/>
-      <c r="CQ13" s="98"/>
-      <c r="CR13" s="99"/>
+      <c r="BO13" s="124"/>
+      <c r="BP13" s="124"/>
+      <c r="BQ13" s="124"/>
+      <c r="BR13" s="124"/>
+      <c r="BS13" s="124"/>
+      <c r="BT13" s="124"/>
+      <c r="BU13" s="124"/>
+      <c r="BV13" s="124"/>
+      <c r="BW13" s="124"/>
+      <c r="BX13" s="124"/>
+      <c r="BY13" s="124"/>
+      <c r="BZ13" s="124"/>
+      <c r="CA13" s="124"/>
+      <c r="CB13" s="124"/>
+      <c r="CC13" s="124"/>
+      <c r="CD13" s="124"/>
+      <c r="CE13" s="124"/>
+      <c r="CF13" s="124"/>
+      <c r="CG13" s="124"/>
+      <c r="CH13" s="124"/>
+      <c r="CI13" s="124"/>
+      <c r="CJ13" s="124"/>
+      <c r="CK13" s="124"/>
+      <c r="CL13" s="124"/>
+      <c r="CM13" s="124"/>
+      <c r="CN13" s="124"/>
+      <c r="CO13" s="124"/>
+      <c r="CP13" s="124"/>
+      <c r="CQ13" s="124"/>
+      <c r="CR13" s="125"/>
     </row>
     <row r="14" spans="1:96" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="96"/>
-      <c r="BN14" s="100"/>
-      <c r="BO14" s="101"/>
-      <c r="BP14" s="101"/>
-      <c r="BQ14" s="101"/>
-      <c r="BR14" s="101"/>
-      <c r="BS14" s="101"/>
-      <c r="BT14" s="101"/>
-      <c r="BU14" s="101"/>
-      <c r="BV14" s="101"/>
-      <c r="BW14" s="101"/>
-      <c r="BX14" s="101"/>
-      <c r="BY14" s="101"/>
-      <c r="BZ14" s="101"/>
-      <c r="CA14" s="101"/>
-      <c r="CB14" s="101"/>
-      <c r="CC14" s="101"/>
-      <c r="CD14" s="101"/>
-      <c r="CE14" s="101"/>
-      <c r="CF14" s="101"/>
-      <c r="CG14" s="101"/>
-      <c r="CH14" s="101"/>
-      <c r="CI14" s="101"/>
-      <c r="CJ14" s="101"/>
-      <c r="CK14" s="101"/>
-      <c r="CL14" s="101"/>
-      <c r="CM14" s="101"/>
-      <c r="CN14" s="101"/>
-      <c r="CO14" s="101"/>
-      <c r="CP14" s="101"/>
-      <c r="CQ14" s="101"/>
-      <c r="CR14" s="102"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="121"/>
+      <c r="AM14" s="121"/>
+      <c r="AN14" s="121"/>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="121"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="121"/>
+      <c r="AS14" s="121"/>
+      <c r="AT14" s="121"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="121"/>
+      <c r="AW14" s="121"/>
+      <c r="AX14" s="121"/>
+      <c r="AY14" s="121"/>
+      <c r="AZ14" s="121"/>
+      <c r="BA14" s="121"/>
+      <c r="BB14" s="121"/>
+      <c r="BC14" s="121"/>
+      <c r="BD14" s="121"/>
+      <c r="BE14" s="121"/>
+      <c r="BF14" s="121"/>
+      <c r="BG14" s="121"/>
+      <c r="BH14" s="121"/>
+      <c r="BI14" s="121"/>
+      <c r="BJ14" s="121"/>
+      <c r="BK14" s="121"/>
+      <c r="BL14" s="121"/>
+      <c r="BM14" s="122"/>
+      <c r="BN14" s="126"/>
+      <c r="BO14" s="127"/>
+      <c r="BP14" s="127"/>
+      <c r="BQ14" s="127"/>
+      <c r="BR14" s="127"/>
+      <c r="BS14" s="127"/>
+      <c r="BT14" s="127"/>
+      <c r="BU14" s="127"/>
+      <c r="BV14" s="127"/>
+      <c r="BW14" s="127"/>
+      <c r="BX14" s="127"/>
+      <c r="BY14" s="127"/>
+      <c r="BZ14" s="127"/>
+      <c r="CA14" s="127"/>
+      <c r="CB14" s="127"/>
+      <c r="CC14" s="127"/>
+      <c r="CD14" s="127"/>
+      <c r="CE14" s="127"/>
+      <c r="CF14" s="127"/>
+      <c r="CG14" s="127"/>
+      <c r="CH14" s="127"/>
+      <c r="CI14" s="127"/>
+      <c r="CJ14" s="127"/>
+      <c r="CK14" s="127"/>
+      <c r="CL14" s="127"/>
+      <c r="CM14" s="127"/>
+      <c r="CN14" s="127"/>
+      <c r="CO14" s="127"/>
+      <c r="CP14" s="127"/>
+      <c r="CQ14" s="127"/>
+      <c r="CR14" s="128"/>
     </row>
     <row r="15" spans="1:96" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="119"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="83" t="s">
         <v>10</v>
       </c>
@@ -4289,83 +4582,83 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
-      <c r="O16" s="133"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
       <c r="R16" s="77"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
-      <c r="V16" s="133"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="48"/>
       <c r="X16" s="48"/>
       <c r="Y16" s="77"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="48"/>
       <c r="AB16" s="48"/>
-      <c r="AC16" s="133"/>
+      <c r="AC16" s="91"/>
       <c r="AD16" s="48"/>
       <c r="AE16" s="48"/>
       <c r="AF16" s="77"/>
       <c r="AG16" s="48"/>
       <c r="AH16" s="48"/>
       <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
+      <c r="AJ16" s="135"/>
       <c r="AK16" s="48"/>
       <c r="AL16" s="77"/>
       <c r="AM16" s="48"/>
       <c r="AN16" s="48"/>
       <c r="AO16" s="48"/>
       <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
+      <c r="AQ16" s="91"/>
       <c r="AR16" s="48"/>
       <c r="AS16" s="77"/>
       <c r="AT16" s="48"/>
       <c r="AU16" s="48"/>
       <c r="AV16" s="48"/>
       <c r="AW16" s="78"/>
-      <c r="AX16" s="48"/>
+      <c r="AX16" s="91"/>
       <c r="AY16" s="48"/>
       <c r="AZ16" s="77"/>
       <c r="BA16" s="48"/>
       <c r="BB16" s="48"/>
       <c r="BC16" s="48"/>
       <c r="BD16" s="48"/>
-      <c r="BE16" s="48"/>
+      <c r="BE16" s="91"/>
       <c r="BF16" s="48"/>
       <c r="BG16" s="77"/>
       <c r="BH16" s="79"/>
       <c r="BI16" s="79"/>
       <c r="BJ16" s="79"/>
       <c r="BK16" s="79"/>
-      <c r="BL16" s="79"/>
+      <c r="BL16" s="136"/>
       <c r="BM16" s="48"/>
       <c r="BN16" s="77"/>
       <c r="BO16" s="48"/>
       <c r="BP16" s="48"/>
       <c r="BQ16" s="48"/>
-      <c r="BR16" s="48"/>
+      <c r="BR16" s="91"/>
       <c r="BS16" s="48"/>
       <c r="BT16" s="48"/>
       <c r="BU16" s="77"/>
       <c r="BV16" s="48"/>
       <c r="BW16" s="48"/>
       <c r="BX16" s="48"/>
-      <c r="BY16" s="48"/>
+      <c r="BY16" s="91"/>
       <c r="BZ16" s="48"/>
       <c r="CA16" s="48"/>
       <c r="CB16" s="77"/>
       <c r="CC16" s="48"/>
       <c r="CD16" s="48"/>
       <c r="CE16" s="48"/>
-      <c r="CF16" s="48"/>
+      <c r="CF16" s="91"/>
       <c r="CG16" s="48"/>
       <c r="CH16" s="48"/>
       <c r="CI16" s="77"/>
       <c r="CJ16" s="48"/>
       <c r="CK16" s="48"/>
       <c r="CL16" s="48"/>
-      <c r="CM16" s="48"/>
+      <c r="CM16" s="135"/>
       <c r="CN16" s="48"/>
       <c r="CO16" s="48"/>
       <c r="CP16" s="77"/>
@@ -4395,83 +4688,83 @@
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
-      <c r="O17" s="133"/>
+      <c r="O17" s="91"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="77"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
-      <c r="V17" s="133"/>
+      <c r="V17" s="91"/>
       <c r="W17" s="48"/>
       <c r="X17" s="48"/>
       <c r="Y17" s="77"/>
       <c r="Z17" s="48"/>
       <c r="AA17" s="48"/>
       <c r="AB17" s="48"/>
-      <c r="AC17" s="133"/>
+      <c r="AC17" s="91"/>
       <c r="AD17" s="48"/>
       <c r="AE17" s="48"/>
       <c r="AF17" s="77"/>
       <c r="AG17" s="48"/>
       <c r="AH17" s="48"/>
       <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
+      <c r="AJ17" s="135"/>
       <c r="AK17" s="48"/>
       <c r="AL17" s="77"/>
       <c r="AM17" s="48"/>
       <c r="AN17" s="48"/>
       <c r="AO17" s="48"/>
       <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
+      <c r="AQ17" s="91"/>
       <c r="AR17" s="48"/>
       <c r="AS17" s="77"/>
       <c r="AT17" s="48"/>
       <c r="AU17" s="48"/>
       <c r="AV17" s="48"/>
       <c r="AW17" s="78"/>
-      <c r="AX17" s="48"/>
+      <c r="AX17" s="91"/>
       <c r="AY17" s="48"/>
       <c r="AZ17" s="77"/>
       <c r="BA17" s="48"/>
       <c r="BB17" s="48"/>
       <c r="BC17" s="48"/>
       <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
+      <c r="BE17" s="91"/>
       <c r="BF17" s="48"/>
       <c r="BG17" s="77"/>
       <c r="BH17" s="79"/>
       <c r="BI17" s="79"/>
       <c r="BJ17" s="79"/>
       <c r="BK17" s="79"/>
-      <c r="BL17" s="79"/>
+      <c r="BL17" s="136"/>
       <c r="BM17" s="48"/>
       <c r="BN17" s="77"/>
       <c r="BO17" s="48"/>
       <c r="BP17" s="48"/>
       <c r="BQ17" s="48"/>
-      <c r="BR17" s="48"/>
+      <c r="BR17" s="91"/>
       <c r="BS17" s="48"/>
       <c r="BT17" s="48"/>
       <c r="BU17" s="77"/>
       <c r="BV17" s="48"/>
       <c r="BW17" s="48"/>
       <c r="BX17" s="48"/>
-      <c r="BY17" s="48"/>
+      <c r="BY17" s="91"/>
       <c r="BZ17" s="48"/>
       <c r="CA17" s="48"/>
       <c r="CB17" s="77"/>
       <c r="CC17" s="48"/>
       <c r="CD17" s="48"/>
       <c r="CE17" s="48"/>
-      <c r="CF17" s="48"/>
+      <c r="CF17" s="91"/>
       <c r="CG17" s="48"/>
       <c r="CH17" s="48"/>
       <c r="CI17" s="77"/>
       <c r="CJ17" s="48"/>
       <c r="CK17" s="48"/>
       <c r="CL17" s="48"/>
-      <c r="CM17" s="48"/>
+      <c r="CM17" s="135"/>
       <c r="CN17" s="48"/>
       <c r="CO17" s="48"/>
       <c r="CP17" s="77"/>
@@ -4501,83 +4794,83 @@
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
-      <c r="O18" s="133"/>
+      <c r="O18" s="91"/>
       <c r="P18" s="48"/>
       <c r="Q18" s="48"/>
       <c r="R18" s="77"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
-      <c r="V18" s="133"/>
+      <c r="V18" s="91"/>
       <c r="W18" s="48"/>
       <c r="X18" s="48"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="48"/>
       <c r="AA18" s="48"/>
       <c r="AB18" s="48"/>
-      <c r="AC18" s="133"/>
+      <c r="AC18" s="91"/>
       <c r="AD18" s="48"/>
       <c r="AE18" s="48"/>
       <c r="AF18" s="77"/>
       <c r="AG18" s="48"/>
       <c r="AH18" s="48"/>
       <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
+      <c r="AJ18" s="135"/>
       <c r="AK18" s="48"/>
       <c r="AL18" s="77"/>
       <c r="AM18" s="48"/>
       <c r="AN18" s="48"/>
       <c r="AO18" s="48"/>
       <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
+      <c r="AQ18" s="91"/>
       <c r="AR18" s="48"/>
       <c r="AS18" s="77"/>
       <c r="AT18" s="48"/>
       <c r="AU18" s="48"/>
       <c r="AV18" s="48"/>
       <c r="AW18" s="78"/>
-      <c r="AX18" s="48"/>
+      <c r="AX18" s="91"/>
       <c r="AY18" s="48"/>
       <c r="AZ18" s="77"/>
       <c r="BA18" s="48"/>
       <c r="BB18" s="48"/>
       <c r="BC18" s="48"/>
       <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
+      <c r="BE18" s="91"/>
       <c r="BF18" s="48"/>
       <c r="BG18" s="77"/>
       <c r="BH18" s="79"/>
       <c r="BI18" s="79"/>
       <c r="BJ18" s="79"/>
       <c r="BK18" s="79"/>
-      <c r="BL18" s="79"/>
+      <c r="BL18" s="136"/>
       <c r="BM18" s="48"/>
       <c r="BN18" s="77"/>
       <c r="BO18" s="48"/>
       <c r="BP18" s="48"/>
       <c r="BQ18" s="48"/>
-      <c r="BR18" s="48"/>
+      <c r="BR18" s="91"/>
       <c r="BS18" s="48"/>
       <c r="BT18" s="48"/>
       <c r="BU18" s="77"/>
       <c r="BV18" s="48"/>
       <c r="BW18" s="48"/>
       <c r="BX18" s="48"/>
-      <c r="BY18" s="48"/>
+      <c r="BY18" s="91"/>
       <c r="BZ18" s="48"/>
       <c r="CA18" s="48"/>
       <c r="CB18" s="77"/>
       <c r="CC18" s="48"/>
       <c r="CD18" s="48"/>
       <c r="CE18" s="48"/>
-      <c r="CF18" s="48"/>
+      <c r="CF18" s="91"/>
       <c r="CG18" s="48"/>
       <c r="CH18" s="48"/>
       <c r="CI18" s="77"/>
       <c r="CJ18" s="48"/>
       <c r="CK18" s="48"/>
       <c r="CL18" s="48"/>
-      <c r="CM18" s="48"/>
+      <c r="CM18" s="135"/>
       <c r="CN18" s="48"/>
       <c r="CO18" s="48"/>
       <c r="CP18" s="77"/>
@@ -4596,7 +4889,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
@@ -4607,83 +4900,83 @@
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
-      <c r="O19" s="133"/>
+      <c r="O19" s="91"/>
       <c r="P19" s="48"/>
       <c r="Q19" s="48"/>
       <c r="R19" s="77"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="133"/>
+      <c r="V19" s="91"/>
       <c r="W19" s="48"/>
       <c r="X19" s="48"/>
       <c r="Y19" s="77"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="48"/>
       <c r="AB19" s="48"/>
-      <c r="AC19" s="133"/>
+      <c r="AC19" s="91"/>
       <c r="AD19" s="48"/>
       <c r="AE19" s="48"/>
       <c r="AF19" s="77"/>
       <c r="AG19" s="48"/>
       <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
+      <c r="AJ19" s="135"/>
       <c r="AK19" s="48"/>
       <c r="AL19" s="77"/>
       <c r="AM19" s="48"/>
       <c r="AN19" s="48"/>
       <c r="AO19" s="48"/>
       <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
+      <c r="AQ19" s="91"/>
       <c r="AR19" s="48"/>
       <c r="AS19" s="77"/>
       <c r="AT19" s="48"/>
       <c r="AU19" s="48"/>
       <c r="AV19" s="48"/>
       <c r="AW19" s="78"/>
-      <c r="AX19" s="48"/>
+      <c r="AX19" s="91"/>
       <c r="AY19" s="48"/>
       <c r="AZ19" s="77"/>
       <c r="BA19" s="48"/>
       <c r="BB19" s="48"/>
       <c r="BC19" s="48"/>
       <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
+      <c r="BE19" s="91"/>
       <c r="BF19" s="48"/>
       <c r="BG19" s="77"/>
       <c r="BH19" s="79"/>
       <c r="BI19" s="79"/>
       <c r="BJ19" s="79"/>
       <c r="BK19" s="79"/>
-      <c r="BL19" s="79"/>
+      <c r="BL19" s="136"/>
       <c r="BM19" s="48"/>
       <c r="BN19" s="77"/>
       <c r="BO19" s="48"/>
       <c r="BP19" s="48"/>
       <c r="BQ19" s="48"/>
-      <c r="BR19" s="48"/>
+      <c r="BR19" s="91"/>
       <c r="BS19" s="48"/>
       <c r="BT19" s="48"/>
       <c r="BU19" s="77"/>
       <c r="BV19" s="48"/>
       <c r="BW19" s="48"/>
       <c r="BX19" s="48"/>
-      <c r="BY19" s="48"/>
+      <c r="BY19" s="91"/>
       <c r="BZ19" s="48"/>
       <c r="CA19" s="48"/>
       <c r="CB19" s="77"/>
       <c r="CC19" s="48"/>
       <c r="CD19" s="48"/>
       <c r="CE19" s="48"/>
-      <c r="CF19" s="48"/>
+      <c r="CF19" s="91"/>
       <c r="CG19" s="48"/>
       <c r="CH19" s="48"/>
       <c r="CI19" s="77"/>
       <c r="CJ19" s="48"/>
       <c r="CK19" s="48"/>
       <c r="CL19" s="48"/>
-      <c r="CM19" s="48"/>
+      <c r="CM19" s="135"/>
       <c r="CN19" s="48"/>
       <c r="CO19" s="48"/>
       <c r="CP19" s="77"/>
@@ -4713,83 +5006,83 @@
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
-      <c r="O20" s="133"/>
+      <c r="O20" s="91"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="77"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="133"/>
+      <c r="V20" s="91"/>
       <c r="W20" s="48"/>
       <c r="X20" s="48"/>
       <c r="Y20" s="77"/>
       <c r="Z20" s="48"/>
       <c r="AA20" s="48"/>
       <c r="AB20" s="48"/>
-      <c r="AC20" s="133"/>
+      <c r="AC20" s="91"/>
       <c r="AD20" s="48"/>
       <c r="AE20" s="48"/>
       <c r="AF20" s="77"/>
       <c r="AG20" s="48"/>
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
+      <c r="AJ20" s="135"/>
       <c r="AK20" s="48"/>
       <c r="AL20" s="77"/>
       <c r="AM20" s="48"/>
       <c r="AN20" s="48"/>
       <c r="AO20" s="48"/>
       <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
+      <c r="AQ20" s="91"/>
       <c r="AR20" s="48"/>
       <c r="AS20" s="77"/>
       <c r="AT20" s="48"/>
       <c r="AU20" s="48"/>
       <c r="AV20" s="48"/>
       <c r="AW20" s="78"/>
-      <c r="AX20" s="48"/>
+      <c r="AX20" s="91"/>
       <c r="AY20" s="48"/>
       <c r="AZ20" s="77"/>
       <c r="BA20" s="48"/>
       <c r="BB20" s="48"/>
       <c r="BC20" s="48"/>
       <c r="BD20" s="48"/>
-      <c r="BE20" s="48"/>
+      <c r="BE20" s="91"/>
       <c r="BF20" s="48"/>
       <c r="BG20" s="77"/>
       <c r="BH20" s="79"/>
       <c r="BI20" s="79"/>
       <c r="BJ20" s="79"/>
       <c r="BK20" s="79"/>
-      <c r="BL20" s="79"/>
+      <c r="BL20" s="136"/>
       <c r="BM20" s="48"/>
       <c r="BN20" s="77"/>
       <c r="BO20" s="48"/>
       <c r="BP20" s="48"/>
       <c r="BQ20" s="48"/>
-      <c r="BR20" s="48"/>
+      <c r="BR20" s="91"/>
       <c r="BS20" s="48"/>
       <c r="BT20" s="48"/>
       <c r="BU20" s="77"/>
       <c r="BV20" s="48"/>
       <c r="BW20" s="48"/>
       <c r="BX20" s="48"/>
-      <c r="BY20" s="48"/>
+      <c r="BY20" s="91"/>
       <c r="BZ20" s="48"/>
       <c r="CA20" s="48"/>
       <c r="CB20" s="77"/>
       <c r="CC20" s="48"/>
       <c r="CD20" s="48"/>
       <c r="CE20" s="48"/>
-      <c r="CF20" s="48"/>
+      <c r="CF20" s="91"/>
       <c r="CG20" s="48"/>
       <c r="CH20" s="48"/>
       <c r="CI20" s="77"/>
       <c r="CJ20" s="48"/>
       <c r="CK20" s="48"/>
       <c r="CL20" s="48"/>
-      <c r="CM20" s="48"/>
+      <c r="CM20" s="135"/>
       <c r="CN20" s="48"/>
       <c r="CO20" s="48"/>
       <c r="CP20" s="77"/>
@@ -4811,83 +5104,83 @@
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
-      <c r="O21" s="133"/>
+      <c r="O21" s="91"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="77"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
-      <c r="V21" s="133"/>
+      <c r="V21" s="91"/>
       <c r="W21" s="48"/>
       <c r="X21" s="48"/>
       <c r="Y21" s="77"/>
       <c r="Z21" s="48"/>
       <c r="AA21" s="48"/>
       <c r="AB21" s="48"/>
-      <c r="AC21" s="133"/>
+      <c r="AC21" s="91"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="48"/>
       <c r="AF21" s="77"/>
       <c r="AG21" s="48"/>
       <c r="AH21" s="48"/>
       <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
+      <c r="AJ21" s="135"/>
       <c r="AK21" s="48"/>
       <c r="AL21" s="77"/>
       <c r="AM21" s="48"/>
       <c r="AN21" s="48"/>
       <c r="AO21" s="48"/>
       <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
+      <c r="AQ21" s="91"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="77"/>
       <c r="AT21" s="48"/>
       <c r="AU21" s="48"/>
       <c r="AV21" s="48"/>
       <c r="AW21" s="78"/>
-      <c r="AX21" s="48"/>
+      <c r="AX21" s="91"/>
       <c r="AY21" s="48"/>
       <c r="AZ21" s="77"/>
       <c r="BA21" s="48"/>
       <c r="BB21" s="48"/>
       <c r="BC21" s="48"/>
       <c r="BD21" s="48"/>
-      <c r="BE21" s="48"/>
+      <c r="BE21" s="91"/>
       <c r="BF21" s="48"/>
       <c r="BG21" s="77"/>
       <c r="BH21" s="79"/>
       <c r="BI21" s="79"/>
       <c r="BJ21" s="79"/>
       <c r="BK21" s="79"/>
-      <c r="BL21" s="79"/>
+      <c r="BL21" s="136"/>
       <c r="BM21" s="48"/>
       <c r="BN21" s="77"/>
       <c r="BO21" s="48"/>
       <c r="BP21" s="48"/>
       <c r="BQ21" s="48"/>
-      <c r="BR21" s="48"/>
+      <c r="BR21" s="91"/>
       <c r="BS21" s="48"/>
       <c r="BT21" s="48"/>
       <c r="BU21" s="77"/>
       <c r="BV21" s="48"/>
       <c r="BW21" s="48"/>
       <c r="BX21" s="48"/>
-      <c r="BY21" s="48"/>
+      <c r="BY21" s="91"/>
       <c r="BZ21" s="48"/>
       <c r="CA21" s="48"/>
       <c r="CB21" s="77"/>
       <c r="CC21" s="48"/>
       <c r="CD21" s="48"/>
       <c r="CE21" s="48"/>
-      <c r="CF21" s="48"/>
+      <c r="CF21" s="91"/>
       <c r="CG21" s="48"/>
       <c r="CH21" s="48"/>
       <c r="CI21" s="77"/>
       <c r="CJ21" s="48"/>
       <c r="CK21" s="48"/>
       <c r="CL21" s="48"/>
-      <c r="CM21" s="48"/>
+      <c r="CM21" s="135"/>
       <c r="CN21" s="48"/>
       <c r="CO21" s="48"/>
       <c r="CP21" s="77"/>
@@ -4913,83 +5206,83 @@
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
       <c r="N22" s="48"/>
-      <c r="O22" s="133"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="77"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
-      <c r="V22" s="133"/>
+      <c r="V22" s="91"/>
       <c r="W22" s="48"/>
       <c r="X22" s="48"/>
       <c r="Y22" s="77"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="48"/>
       <c r="AB22" s="48"/>
-      <c r="AC22" s="133"/>
+      <c r="AC22" s="91"/>
       <c r="AD22" s="48"/>
       <c r="AE22" s="48"/>
       <c r="AF22" s="77"/>
       <c r="AG22" s="48"/>
       <c r="AH22" s="48"/>
       <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
+      <c r="AJ22" s="135"/>
       <c r="AK22" s="48"/>
       <c r="AL22" s="77"/>
       <c r="AM22" s="48"/>
       <c r="AN22" s="48"/>
       <c r="AO22" s="48"/>
       <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
+      <c r="AQ22" s="91"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="77"/>
       <c r="AT22" s="48"/>
       <c r="AU22" s="48"/>
       <c r="AV22" s="48"/>
       <c r="AW22" s="78"/>
-      <c r="AX22" s="48"/>
+      <c r="AX22" s="91"/>
       <c r="AY22" s="48"/>
       <c r="AZ22" s="77"/>
       <c r="BA22" s="48"/>
       <c r="BB22" s="48"/>
       <c r="BC22" s="48"/>
       <c r="BD22" s="48"/>
-      <c r="BE22" s="48"/>
+      <c r="BE22" s="91"/>
       <c r="BF22" s="48"/>
       <c r="BG22" s="77"/>
       <c r="BH22" s="79"/>
       <c r="BI22" s="79"/>
       <c r="BJ22" s="79"/>
       <c r="BK22" s="79"/>
-      <c r="BL22" s="79"/>
+      <c r="BL22" s="136"/>
       <c r="BM22" s="48"/>
       <c r="BN22" s="77"/>
       <c r="BO22" s="48"/>
       <c r="BP22" s="48"/>
       <c r="BQ22" s="48"/>
-      <c r="BR22" s="48"/>
+      <c r="BR22" s="91"/>
       <c r="BS22" s="48"/>
       <c r="BT22" s="48"/>
       <c r="BU22" s="77"/>
       <c r="BV22" s="48"/>
       <c r="BW22" s="48"/>
       <c r="BX22" s="48"/>
-      <c r="BY22" s="48"/>
+      <c r="BY22" s="91"/>
       <c r="BZ22" s="48"/>
       <c r="CA22" s="48"/>
       <c r="CB22" s="77"/>
       <c r="CC22" s="48"/>
       <c r="CD22" s="48"/>
       <c r="CE22" s="48"/>
-      <c r="CF22" s="48"/>
+      <c r="CF22" s="91"/>
       <c r="CG22" s="48"/>
       <c r="CH22" s="48"/>
       <c r="CI22" s="77"/>
       <c r="CJ22" s="48"/>
       <c r="CK22" s="48"/>
       <c r="CL22" s="48"/>
-      <c r="CM22" s="48"/>
+      <c r="CM22" s="135"/>
       <c r="CN22" s="48"/>
       <c r="CO22" s="48"/>
       <c r="CP22" s="77"/>
@@ -5008,7 +5301,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="80"/>
       <c r="G23" s="48"/>
@@ -5019,83 +5312,83 @@
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
-      <c r="O23" s="133"/>
+      <c r="O23" s="91"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="77"/>
       <c r="S23" s="48"/>
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
-      <c r="V23" s="133"/>
+      <c r="V23" s="91"/>
       <c r="W23" s="48"/>
       <c r="X23" s="48"/>
       <c r="Y23" s="77"/>
       <c r="Z23" s="48"/>
       <c r="AA23" s="48"/>
       <c r="AB23" s="48"/>
-      <c r="AC23" s="133"/>
+      <c r="AC23" s="91"/>
       <c r="AD23" s="48"/>
       <c r="AE23" s="48"/>
       <c r="AF23" s="77"/>
       <c r="AG23" s="48"/>
       <c r="AH23" s="48"/>
       <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
+      <c r="AJ23" s="135"/>
       <c r="AK23" s="48"/>
       <c r="AL23" s="77"/>
       <c r="AM23" s="48"/>
       <c r="AN23" s="48"/>
       <c r="AO23" s="48"/>
       <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
+      <c r="AQ23" s="91"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="77"/>
       <c r="AT23" s="48"/>
       <c r="AU23" s="48"/>
       <c r="AV23" s="48"/>
       <c r="AW23" s="78"/>
-      <c r="AX23" s="48"/>
+      <c r="AX23" s="91"/>
       <c r="AY23" s="48"/>
       <c r="AZ23" s="77"/>
       <c r="BA23" s="48"/>
       <c r="BB23" s="48"/>
       <c r="BC23" s="48"/>
       <c r="BD23" s="48"/>
-      <c r="BE23" s="48"/>
+      <c r="BE23" s="91"/>
       <c r="BF23" s="48"/>
       <c r="BG23" s="77"/>
       <c r="BH23" s="79"/>
       <c r="BI23" s="79"/>
       <c r="BJ23" s="79"/>
       <c r="BK23" s="79"/>
-      <c r="BL23" s="79"/>
+      <c r="BL23" s="136"/>
       <c r="BM23" s="48"/>
       <c r="BN23" s="77"/>
       <c r="BO23" s="48"/>
       <c r="BP23" s="48"/>
       <c r="BQ23" s="48"/>
-      <c r="BR23" s="48"/>
+      <c r="BR23" s="91"/>
       <c r="BS23" s="48"/>
       <c r="BT23" s="48"/>
       <c r="BU23" s="77"/>
       <c r="BV23" s="48"/>
       <c r="BW23" s="48"/>
       <c r="BX23" s="48"/>
-      <c r="BY23" s="48"/>
+      <c r="BY23" s="91"/>
       <c r="BZ23" s="48"/>
       <c r="CA23" s="48"/>
       <c r="CB23" s="77"/>
       <c r="CC23" s="48"/>
       <c r="CD23" s="48"/>
       <c r="CE23" s="48"/>
-      <c r="CF23" s="48"/>
+      <c r="CF23" s="91"/>
       <c r="CG23" s="48"/>
       <c r="CH23" s="48"/>
       <c r="CI23" s="77"/>
       <c r="CJ23" s="48"/>
       <c r="CK23" s="48"/>
       <c r="CL23" s="48"/>
-      <c r="CM23" s="48"/>
+      <c r="CM23" s="135"/>
       <c r="CN23" s="48"/>
       <c r="CO23" s="48"/>
       <c r="CP23" s="77"/>
@@ -5125,83 +5418,83 @@
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
       <c r="N24" s="48"/>
-      <c r="O24" s="133"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="77"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
-      <c r="V24" s="133"/>
+      <c r="V24" s="91"/>
       <c r="W24" s="48"/>
       <c r="X24" s="48"/>
       <c r="Y24" s="77"/>
       <c r="Z24" s="48"/>
       <c r="AA24" s="48"/>
       <c r="AB24" s="48"/>
-      <c r="AC24" s="133"/>
+      <c r="AC24" s="91"/>
       <c r="AD24" s="48"/>
       <c r="AE24" s="48"/>
       <c r="AF24" s="77"/>
       <c r="AG24" s="48"/>
       <c r="AH24" s="48"/>
       <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
+      <c r="AJ24" s="135"/>
       <c r="AK24" s="48"/>
       <c r="AL24" s="77"/>
       <c r="AM24" s="48"/>
       <c r="AN24" s="48"/>
       <c r="AO24" s="48"/>
       <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
+      <c r="AQ24" s="91"/>
       <c r="AR24" s="48"/>
       <c r="AS24" s="77"/>
       <c r="AT24" s="48"/>
       <c r="AU24" s="48"/>
       <c r="AV24" s="48"/>
       <c r="AW24" s="78"/>
-      <c r="AX24" s="48"/>
+      <c r="AX24" s="91"/>
       <c r="AY24" s="48"/>
       <c r="AZ24" s="77"/>
       <c r="BA24" s="48"/>
       <c r="BB24" s="48"/>
       <c r="BC24" s="48"/>
       <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
+      <c r="BE24" s="91"/>
       <c r="BF24" s="48"/>
       <c r="BG24" s="77"/>
       <c r="BH24" s="79"/>
       <c r="BI24" s="79"/>
       <c r="BJ24" s="79"/>
       <c r="BK24" s="79"/>
-      <c r="BL24" s="79"/>
+      <c r="BL24" s="136"/>
       <c r="BM24" s="48"/>
       <c r="BN24" s="77"/>
       <c r="BO24" s="48"/>
       <c r="BP24" s="48"/>
       <c r="BQ24" s="48"/>
-      <c r="BR24" s="48"/>
+      <c r="BR24" s="91"/>
       <c r="BS24" s="48"/>
       <c r="BT24" s="48"/>
       <c r="BU24" s="77"/>
       <c r="BV24" s="48"/>
       <c r="BW24" s="48"/>
       <c r="BX24" s="48"/>
-      <c r="BY24" s="48"/>
+      <c r="BY24" s="91"/>
       <c r="BZ24" s="48"/>
       <c r="CA24" s="48"/>
       <c r="CB24" s="77"/>
       <c r="CC24" s="48"/>
       <c r="CD24" s="48"/>
       <c r="CE24" s="48"/>
-      <c r="CF24" s="48"/>
+      <c r="CF24" s="91"/>
       <c r="CG24" s="48"/>
       <c r="CH24" s="48"/>
       <c r="CI24" s="77"/>
       <c r="CJ24" s="48"/>
       <c r="CK24" s="48"/>
       <c r="CL24" s="48"/>
-      <c r="CM24" s="48"/>
+      <c r="CM24" s="135"/>
       <c r="CN24" s="48"/>
       <c r="CO24" s="48"/>
       <c r="CP24" s="77"/>
@@ -5223,83 +5516,83 @@
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
       <c r="N25" s="48"/>
-      <c r="O25" s="133"/>
+      <c r="O25" s="91"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="77"/>
       <c r="S25" s="48"/>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
-      <c r="V25" s="133"/>
+      <c r="V25" s="91"/>
       <c r="W25" s="48"/>
       <c r="X25" s="48"/>
       <c r="Y25" s="77"/>
       <c r="Z25" s="48"/>
       <c r="AA25" s="48"/>
       <c r="AB25" s="48"/>
-      <c r="AC25" s="133"/>
+      <c r="AC25" s="91"/>
       <c r="AD25" s="48"/>
       <c r="AE25" s="48"/>
       <c r="AF25" s="77"/>
       <c r="AG25" s="48"/>
       <c r="AH25" s="48"/>
       <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
+      <c r="AJ25" s="135"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="77"/>
       <c r="AM25" s="48"/>
       <c r="AN25" s="48"/>
       <c r="AO25" s="48"/>
       <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
+      <c r="AQ25" s="91"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="77"/>
       <c r="AT25" s="48"/>
       <c r="AU25" s="48"/>
       <c r="AV25" s="48"/>
       <c r="AW25" s="78"/>
-      <c r="AX25" s="48"/>
+      <c r="AX25" s="91"/>
       <c r="AY25" s="48"/>
       <c r="AZ25" s="77"/>
       <c r="BA25" s="48"/>
       <c r="BB25" s="48"/>
       <c r="BC25" s="48"/>
       <c r="BD25" s="48"/>
-      <c r="BE25" s="48"/>
+      <c r="BE25" s="91"/>
       <c r="BF25" s="48"/>
       <c r="BG25" s="77"/>
       <c r="BH25" s="79"/>
       <c r="BI25" s="79"/>
       <c r="BJ25" s="79"/>
       <c r="BK25" s="79"/>
-      <c r="BL25" s="79"/>
+      <c r="BL25" s="136"/>
       <c r="BM25" s="48"/>
       <c r="BN25" s="77"/>
       <c r="BO25" s="48"/>
       <c r="BP25" s="48"/>
       <c r="BQ25" s="48"/>
-      <c r="BR25" s="48"/>
+      <c r="BR25" s="91"/>
       <c r="BS25" s="48"/>
       <c r="BT25" s="48"/>
       <c r="BU25" s="77"/>
       <c r="BV25" s="48"/>
       <c r="BW25" s="48"/>
       <c r="BX25" s="48"/>
-      <c r="BY25" s="48"/>
+      <c r="BY25" s="91"/>
       <c r="BZ25" s="48"/>
       <c r="CA25" s="48"/>
       <c r="CB25" s="77"/>
       <c r="CC25" s="48"/>
       <c r="CD25" s="48"/>
       <c r="CE25" s="48"/>
-      <c r="CF25" s="48"/>
+      <c r="CF25" s="91"/>
       <c r="CG25" s="48"/>
       <c r="CH25" s="48"/>
       <c r="CI25" s="77"/>
       <c r="CJ25" s="48"/>
       <c r="CK25" s="48"/>
       <c r="CL25" s="48"/>
-      <c r="CM25" s="48"/>
+      <c r="CM25" s="135"/>
       <c r="CN25" s="48"/>
       <c r="CO25" s="48"/>
       <c r="CP25" s="77"/>
@@ -5325,83 +5618,83 @@
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
       <c r="N26" s="48"/>
-      <c r="O26" s="133"/>
+      <c r="O26" s="91"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="77"/>
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
-      <c r="V26" s="133"/>
+      <c r="V26" s="91"/>
       <c r="W26" s="48"/>
       <c r="X26" s="48"/>
       <c r="Y26" s="77"/>
       <c r="Z26" s="48"/>
       <c r="AA26" s="48"/>
       <c r="AB26" s="48"/>
-      <c r="AC26" s="133"/>
+      <c r="AC26" s="91"/>
       <c r="AD26" s="48"/>
       <c r="AE26" s="48"/>
       <c r="AF26" s="77"/>
       <c r="AG26" s="48"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
+      <c r="AJ26" s="135"/>
       <c r="AK26" s="48"/>
       <c r="AL26" s="77"/>
       <c r="AM26" s="48"/>
       <c r="AN26" s="48"/>
       <c r="AO26" s="48"/>
       <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
+      <c r="AQ26" s="91"/>
       <c r="AR26" s="48"/>
       <c r="AS26" s="77"/>
       <c r="AT26" s="48"/>
       <c r="AU26" s="48"/>
       <c r="AV26" s="48"/>
       <c r="AW26" s="78"/>
-      <c r="AX26" s="48"/>
+      <c r="AX26" s="91"/>
       <c r="AY26" s="48"/>
       <c r="AZ26" s="77"/>
       <c r="BA26" s="48"/>
       <c r="BB26" s="48"/>
       <c r="BC26" s="48"/>
       <c r="BD26" s="48"/>
-      <c r="BE26" s="48"/>
+      <c r="BE26" s="91"/>
       <c r="BF26" s="48"/>
       <c r="BG26" s="77"/>
       <c r="BH26" s="79"/>
       <c r="BI26" s="79"/>
       <c r="BJ26" s="79"/>
       <c r="BK26" s="79"/>
-      <c r="BL26" s="79"/>
+      <c r="BL26" s="136"/>
       <c r="BM26" s="48"/>
       <c r="BN26" s="77"/>
       <c r="BO26" s="48"/>
       <c r="BP26" s="48"/>
       <c r="BQ26" s="48"/>
-      <c r="BR26" s="48"/>
+      <c r="BR26" s="91"/>
       <c r="BS26" s="48"/>
       <c r="BT26" s="48"/>
       <c r="BU26" s="77"/>
       <c r="BV26" s="48"/>
       <c r="BW26" s="48"/>
       <c r="BX26" s="48"/>
-      <c r="BY26" s="48"/>
+      <c r="BY26" s="91"/>
       <c r="BZ26" s="48"/>
       <c r="CA26" s="48"/>
       <c r="CB26" s="77"/>
       <c r="CC26" s="48"/>
       <c r="CD26" s="48"/>
       <c r="CE26" s="48"/>
-      <c r="CF26" s="48"/>
+      <c r="CF26" s="91"/>
       <c r="CG26" s="48"/>
       <c r="CH26" s="48"/>
       <c r="CI26" s="77"/>
       <c r="CJ26" s="48"/>
       <c r="CK26" s="48"/>
       <c r="CL26" s="48"/>
-      <c r="CM26" s="48"/>
+      <c r="CM26" s="135"/>
       <c r="CN26" s="48"/>
       <c r="CO26" s="48"/>
       <c r="CP26" s="77"/>
@@ -5420,7 +5713,7 @@
         <v>60</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
@@ -5431,83 +5724,83 @@
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
-      <c r="O27" s="133"/>
+      <c r="O27" s="91"/>
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
       <c r="R27" s="77"/>
       <c r="S27" s="48"/>
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
-      <c r="V27" s="133"/>
+      <c r="V27" s="91"/>
       <c r="W27" s="48"/>
       <c r="X27" s="48"/>
       <c r="Y27" s="77"/>
       <c r="Z27" s="48"/>
       <c r="AA27" s="48"/>
       <c r="AB27" s="48"/>
-      <c r="AC27" s="133"/>
+      <c r="AC27" s="91"/>
       <c r="AD27" s="48"/>
       <c r="AE27" s="48"/>
       <c r="AF27" s="77"/>
       <c r="AG27" s="48"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
+      <c r="AJ27" s="135"/>
       <c r="AK27" s="48"/>
       <c r="AL27" s="77"/>
       <c r="AM27" s="48"/>
       <c r="AN27" s="48"/>
       <c r="AO27" s="48"/>
       <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
+      <c r="AQ27" s="91"/>
       <c r="AR27" s="48"/>
       <c r="AS27" s="77"/>
       <c r="AT27" s="48"/>
       <c r="AU27" s="81"/>
       <c r="AV27" s="48"/>
       <c r="AW27" s="78"/>
-      <c r="AX27" s="48"/>
+      <c r="AX27" s="91"/>
       <c r="AY27" s="48"/>
       <c r="AZ27" s="77"/>
       <c r="BA27" s="48"/>
       <c r="BB27" s="48"/>
       <c r="BC27" s="48"/>
       <c r="BD27" s="48"/>
-      <c r="BE27" s="48"/>
+      <c r="BE27" s="91"/>
       <c r="BF27" s="48"/>
       <c r="BG27" s="77"/>
       <c r="BH27" s="79"/>
       <c r="BI27" s="79"/>
       <c r="BJ27" s="79"/>
       <c r="BK27" s="79"/>
-      <c r="BL27" s="79"/>
+      <c r="BL27" s="136"/>
       <c r="BM27" s="48"/>
       <c r="BN27" s="77"/>
       <c r="BO27" s="48"/>
       <c r="BP27" s="48"/>
       <c r="BQ27" s="48"/>
-      <c r="BR27" s="48"/>
+      <c r="BR27" s="91"/>
       <c r="BS27" s="48"/>
       <c r="BT27" s="48"/>
       <c r="BU27" s="77"/>
       <c r="BV27" s="48"/>
       <c r="BW27" s="48"/>
       <c r="BX27" s="48"/>
-      <c r="BY27" s="48"/>
+      <c r="BY27" s="91"/>
       <c r="BZ27" s="48"/>
       <c r="CA27" s="48"/>
       <c r="CB27" s="77"/>
       <c r="CC27" s="48"/>
       <c r="CD27" s="48"/>
       <c r="CE27" s="48"/>
-      <c r="CF27" s="48"/>
+      <c r="CF27" s="91"/>
       <c r="CG27" s="48"/>
       <c r="CH27" s="48"/>
       <c r="CI27" s="77"/>
       <c r="CJ27" s="48"/>
       <c r="CK27" s="48"/>
       <c r="CL27" s="48"/>
-      <c r="CM27" s="48"/>
+      <c r="CM27" s="135"/>
       <c r="CN27" s="48"/>
       <c r="CO27" s="48"/>
       <c r="CP27" s="77"/>
@@ -5537,83 +5830,83 @@
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
       <c r="N28" s="48"/>
-      <c r="O28" s="133"/>
+      <c r="O28" s="91"/>
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
       <c r="R28" s="77"/>
       <c r="S28" s="48"/>
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
-      <c r="V28" s="133"/>
+      <c r="V28" s="91"/>
       <c r="W28" s="48"/>
       <c r="X28" s="48"/>
       <c r="Y28" s="77"/>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="48"/>
-      <c r="AC28" s="133"/>
+      <c r="AC28" s="91"/>
       <c r="AD28" s="48"/>
       <c r="AE28" s="48"/>
       <c r="AF28" s="77"/>
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
+      <c r="AJ28" s="135"/>
       <c r="AK28" s="48"/>
       <c r="AL28" s="77"/>
       <c r="AM28" s="48"/>
       <c r="AN28" s="48"/>
       <c r="AO28" s="48"/>
       <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
+      <c r="AQ28" s="91"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="77"/>
       <c r="AT28" s="48"/>
       <c r="AU28" s="48"/>
       <c r="AV28" s="48"/>
       <c r="AW28" s="78"/>
-      <c r="AX28" s="48"/>
+      <c r="AX28" s="91"/>
       <c r="AY28" s="48"/>
       <c r="AZ28" s="77"/>
       <c r="BA28" s="48"/>
       <c r="BB28" s="48"/>
       <c r="BC28" s="48"/>
       <c r="BD28" s="48"/>
-      <c r="BE28" s="48"/>
+      <c r="BE28" s="91"/>
       <c r="BF28" s="48"/>
       <c r="BG28" s="77"/>
       <c r="BH28" s="79"/>
       <c r="BI28" s="79"/>
       <c r="BJ28" s="79"/>
       <c r="BK28" s="79"/>
-      <c r="BL28" s="79"/>
+      <c r="BL28" s="136"/>
       <c r="BM28" s="48"/>
       <c r="BN28" s="77"/>
       <c r="BO28" s="48"/>
       <c r="BP28" s="48"/>
       <c r="BQ28" s="48"/>
-      <c r="BR28" s="48"/>
+      <c r="BR28" s="91"/>
       <c r="BS28" s="48"/>
       <c r="BT28" s="48"/>
       <c r="BU28" s="77"/>
       <c r="BV28" s="48"/>
       <c r="BW28" s="48"/>
       <c r="BX28" s="48"/>
-      <c r="BY28" s="48"/>
+      <c r="BY28" s="91"/>
       <c r="BZ28" s="48"/>
       <c r="CA28" s="48"/>
       <c r="CB28" s="77"/>
       <c r="CC28" s="48"/>
       <c r="CD28" s="48"/>
       <c r="CE28" s="48"/>
-      <c r="CF28" s="48"/>
+      <c r="CF28" s="91"/>
       <c r="CG28" s="48"/>
       <c r="CH28" s="48"/>
       <c r="CI28" s="77"/>
       <c r="CJ28" s="48"/>
       <c r="CK28" s="48"/>
       <c r="CL28" s="48"/>
-      <c r="CM28" s="48"/>
+      <c r="CM28" s="135"/>
       <c r="CN28" s="48"/>
       <c r="CO28" s="48"/>
       <c r="CP28" s="77"/>
@@ -5635,83 +5928,83 @@
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
       <c r="N29" s="48"/>
-      <c r="O29" s="133"/>
+      <c r="O29" s="91"/>
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="77"/>
       <c r="S29" s="48"/>
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
-      <c r="V29" s="133"/>
+      <c r="V29" s="91"/>
       <c r="W29" s="48"/>
       <c r="X29" s="48"/>
       <c r="Y29" s="77"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="48"/>
       <c r="AB29" s="48"/>
-      <c r="AC29" s="133"/>
+      <c r="AC29" s="91"/>
       <c r="AD29" s="48"/>
       <c r="AE29" s="48"/>
       <c r="AF29" s="77"/>
       <c r="AG29" s="48"/>
       <c r="AH29" s="48"/>
       <c r="AI29" s="48"/>
-      <c r="AJ29" s="48"/>
+      <c r="AJ29" s="135"/>
       <c r="AK29" s="48"/>
       <c r="AL29" s="77"/>
       <c r="AM29" s="48"/>
       <c r="AN29" s="48"/>
       <c r="AO29" s="48"/>
       <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
+      <c r="AQ29" s="91"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="77"/>
       <c r="AT29" s="48"/>
       <c r="AU29" s="48"/>
       <c r="AV29" s="48"/>
       <c r="AW29" s="78"/>
-      <c r="AX29" s="48"/>
+      <c r="AX29" s="91"/>
       <c r="AY29" s="48"/>
       <c r="AZ29" s="77"/>
       <c r="BA29" s="48"/>
       <c r="BB29" s="48"/>
       <c r="BC29" s="48"/>
       <c r="BD29" s="48"/>
-      <c r="BE29" s="48"/>
+      <c r="BE29" s="91"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="77"/>
       <c r="BH29" s="79"/>
       <c r="BI29" s="79"/>
       <c r="BJ29" s="79"/>
       <c r="BK29" s="79"/>
-      <c r="BL29" s="79"/>
+      <c r="BL29" s="136"/>
       <c r="BM29" s="48"/>
       <c r="BN29" s="77"/>
       <c r="BO29" s="48"/>
       <c r="BP29" s="48"/>
       <c r="BQ29" s="48"/>
-      <c r="BR29" s="48"/>
+      <c r="BR29" s="91"/>
       <c r="BS29" s="48"/>
       <c r="BT29" s="48"/>
       <c r="BU29" s="77"/>
       <c r="BV29" s="48"/>
       <c r="BW29" s="48"/>
       <c r="BX29" s="48"/>
-      <c r="BY29" s="48"/>
+      <c r="BY29" s="91"/>
       <c r="BZ29" s="48"/>
       <c r="CA29" s="48"/>
       <c r="CB29" s="77"/>
       <c r="CC29" s="48"/>
       <c r="CD29" s="48"/>
       <c r="CE29" s="48"/>
-      <c r="CF29" s="48"/>
+      <c r="CF29" s="91"/>
       <c r="CG29" s="48"/>
       <c r="CH29" s="48"/>
       <c r="CI29" s="77"/>
       <c r="CJ29" s="48"/>
       <c r="CK29" s="48"/>
       <c r="CL29" s="48"/>
-      <c r="CM29" s="48"/>
+      <c r="CM29" s="135"/>
       <c r="CN29" s="48"/>
       <c r="CO29" s="48"/>
       <c r="CP29" s="77"/>
@@ -5737,83 +6030,83 @@
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
       <c r="N30" s="48"/>
-      <c r="O30" s="133"/>
+      <c r="O30" s="91"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
       <c r="R30" s="77"/>
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
-      <c r="V30" s="133"/>
+      <c r="V30" s="91"/>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="77"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="48"/>
       <c r="AB30" s="48"/>
-      <c r="AC30" s="133"/>
+      <c r="AC30" s="91"/>
       <c r="AD30" s="48"/>
       <c r="AE30" s="48"/>
       <c r="AF30" s="77"/>
       <c r="AG30" s="48"/>
       <c r="AH30" s="48"/>
       <c r="AI30" s="48"/>
-      <c r="AJ30" s="48"/>
+      <c r="AJ30" s="135"/>
       <c r="AK30" s="48"/>
       <c r="AL30" s="77"/>
       <c r="AM30" s="48"/>
       <c r="AN30" s="48"/>
       <c r="AO30" s="48"/>
       <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
+      <c r="AQ30" s="91"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="77"/>
       <c r="AT30" s="48"/>
       <c r="AU30" s="48"/>
       <c r="AV30" s="48"/>
       <c r="AW30" s="78"/>
-      <c r="AX30" s="48"/>
+      <c r="AX30" s="91"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="77"/>
       <c r="BA30" s="48"/>
       <c r="BB30" s="48"/>
       <c r="BC30" s="48"/>
       <c r="BD30" s="48"/>
-      <c r="BE30" s="48"/>
+      <c r="BE30" s="91"/>
       <c r="BF30" s="48"/>
       <c r="BG30" s="77"/>
       <c r="BH30" s="79"/>
       <c r="BI30" s="79"/>
       <c r="BJ30" s="79"/>
       <c r="BK30" s="79"/>
-      <c r="BL30" s="79"/>
+      <c r="BL30" s="136"/>
       <c r="BM30" s="48"/>
       <c r="BN30" s="77"/>
       <c r="BO30" s="48"/>
       <c r="BP30" s="48"/>
       <c r="BQ30" s="48"/>
-      <c r="BR30" s="48"/>
+      <c r="BR30" s="91"/>
       <c r="BS30" s="48"/>
       <c r="BT30" s="48"/>
       <c r="BU30" s="77"/>
       <c r="BV30" s="48"/>
       <c r="BW30" s="48"/>
       <c r="BX30" s="48"/>
-      <c r="BY30" s="48"/>
+      <c r="BY30" s="91"/>
       <c r="BZ30" s="48"/>
       <c r="CA30" s="48"/>
       <c r="CB30" s="77"/>
       <c r="CC30" s="48"/>
       <c r="CD30" s="48"/>
       <c r="CE30" s="48"/>
-      <c r="CF30" s="48"/>
+      <c r="CF30" s="91"/>
       <c r="CG30" s="48"/>
       <c r="CH30" s="48"/>
       <c r="CI30" s="77"/>
       <c r="CJ30" s="48"/>
       <c r="CK30" s="48"/>
       <c r="CL30" s="48"/>
-      <c r="CM30" s="48"/>
+      <c r="CM30" s="135"/>
       <c r="CN30" s="48"/>
       <c r="CO30" s="48"/>
       <c r="CP30" s="77"/>
@@ -5832,7 +6125,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="77"/>
@@ -5843,83 +6136,83 @@
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
-      <c r="O31" s="133"/>
+      <c r="O31" s="91"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="77"/>
       <c r="S31" s="48"/>
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
-      <c r="V31" s="133"/>
+      <c r="V31" s="91"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="77"/>
       <c r="Z31" s="48"/>
       <c r="AA31" s="48"/>
       <c r="AB31" s="48"/>
-      <c r="AC31" s="133"/>
+      <c r="AC31" s="91"/>
       <c r="AD31" s="48"/>
       <c r="AE31" s="48"/>
       <c r="AF31" s="77"/>
       <c r="AG31" s="48"/>
       <c r="AH31" s="48"/>
       <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
+      <c r="AJ31" s="135"/>
       <c r="AK31" s="48"/>
       <c r="AL31" s="77"/>
       <c r="AM31" s="48"/>
       <c r="AN31" s="48"/>
       <c r="AO31" s="48"/>
       <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
+      <c r="AQ31" s="91"/>
       <c r="AR31" s="48"/>
       <c r="AS31" s="77"/>
       <c r="AT31" s="48"/>
       <c r="AU31" s="48"/>
       <c r="AV31" s="48"/>
       <c r="AW31" s="78"/>
-      <c r="AX31" s="48"/>
+      <c r="AX31" s="91"/>
       <c r="AY31" s="48"/>
       <c r="AZ31" s="77"/>
       <c r="BA31" s="48"/>
       <c r="BB31" s="48"/>
       <c r="BC31" s="48"/>
       <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
+      <c r="BE31" s="91"/>
       <c r="BF31" s="48"/>
       <c r="BG31" s="77"/>
       <c r="BH31" s="79"/>
       <c r="BI31" s="79"/>
       <c r="BJ31" s="79"/>
       <c r="BK31" s="79"/>
-      <c r="BL31" s="79"/>
+      <c r="BL31" s="136"/>
       <c r="BM31" s="48"/>
       <c r="BN31" s="77"/>
       <c r="BO31" s="48"/>
       <c r="BP31" s="48"/>
       <c r="BQ31" s="48"/>
-      <c r="BR31" s="48"/>
+      <c r="BR31" s="91"/>
       <c r="BS31" s="48"/>
       <c r="BT31" s="48"/>
       <c r="BU31" s="77"/>
       <c r="BV31" s="48"/>
       <c r="BW31" s="48"/>
       <c r="BX31" s="48"/>
-      <c r="BY31" s="48"/>
+      <c r="BY31" s="91"/>
       <c r="BZ31" s="48"/>
       <c r="CA31" s="48"/>
       <c r="CB31" s="77"/>
       <c r="CC31" s="48"/>
       <c r="CD31" s="48"/>
       <c r="CE31" s="48"/>
-      <c r="CF31" s="48"/>
+      <c r="CF31" s="91"/>
       <c r="CG31" s="48"/>
       <c r="CH31" s="48"/>
       <c r="CI31" s="77"/>
       <c r="CJ31" s="48"/>
       <c r="CK31" s="48"/>
       <c r="CL31" s="48"/>
-      <c r="CM31" s="48"/>
+      <c r="CM31" s="135"/>
       <c r="CN31" s="48"/>
       <c r="CO31" s="48"/>
       <c r="CP31" s="77"/>
@@ -5949,83 +6242,83 @@
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
       <c r="N32" s="48"/>
-      <c r="O32" s="133"/>
+      <c r="O32" s="91"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="77"/>
       <c r="S32" s="48"/>
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
-      <c r="V32" s="133"/>
+      <c r="V32" s="91"/>
       <c r="W32" s="48"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="77"/>
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
-      <c r="AC32" s="133"/>
+      <c r="AC32" s="91"/>
       <c r="AD32" s="48"/>
       <c r="AE32" s="48"/>
       <c r="AF32" s="77"/>
       <c r="AG32" s="48"/>
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
+      <c r="AJ32" s="135"/>
       <c r="AK32" s="48"/>
       <c r="AL32" s="77"/>
       <c r="AM32" s="48"/>
       <c r="AN32" s="48"/>
       <c r="AO32" s="48"/>
       <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
+      <c r="AQ32" s="91"/>
       <c r="AR32" s="48"/>
       <c r="AS32" s="77"/>
       <c r="AT32" s="48"/>
       <c r="AU32" s="48"/>
       <c r="AV32" s="48"/>
       <c r="AW32" s="78"/>
-      <c r="AX32" s="48"/>
+      <c r="AX32" s="91"/>
       <c r="AY32" s="48"/>
       <c r="AZ32" s="77"/>
       <c r="BA32" s="48"/>
       <c r="BB32" s="48"/>
       <c r="BC32" s="48"/>
       <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
+      <c r="BE32" s="91"/>
       <c r="BF32" s="48"/>
       <c r="BG32" s="77"/>
       <c r="BH32" s="79"/>
       <c r="BI32" s="79"/>
       <c r="BJ32" s="79"/>
       <c r="BK32" s="79"/>
-      <c r="BL32" s="79"/>
+      <c r="BL32" s="136"/>
       <c r="BM32" s="48"/>
       <c r="BN32" s="77"/>
       <c r="BO32" s="48"/>
       <c r="BP32" s="48"/>
       <c r="BQ32" s="48"/>
-      <c r="BR32" s="48"/>
+      <c r="BR32" s="91"/>
       <c r="BS32" s="48"/>
       <c r="BT32" s="48"/>
       <c r="BU32" s="77"/>
       <c r="BV32" s="48"/>
       <c r="BW32" s="48"/>
       <c r="BX32" s="48"/>
-      <c r="BY32" s="48"/>
+      <c r="BY32" s="91"/>
       <c r="BZ32" s="48"/>
       <c r="CA32" s="48"/>
       <c r="CB32" s="77"/>
       <c r="CC32" s="48"/>
       <c r="CD32" s="48"/>
       <c r="CE32" s="48"/>
-      <c r="CF32" s="48"/>
+      <c r="CF32" s="91"/>
       <c r="CG32" s="48"/>
       <c r="CH32" s="48"/>
       <c r="CI32" s="77"/>
       <c r="CJ32" s="48"/>
       <c r="CK32" s="48"/>
       <c r="CL32" s="48"/>
-      <c r="CM32" s="48"/>
+      <c r="CM32" s="135"/>
       <c r="CN32" s="48"/>
       <c r="CO32" s="48"/>
       <c r="CP32" s="77"/>
@@ -6044,7 +6337,7 @@
         <v>71</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -6055,83 +6348,83 @@
       <c r="L33" s="48"/>
       <c r="M33" s="48"/>
       <c r="N33" s="48"/>
-      <c r="O33" s="133"/>
+      <c r="O33" s="91"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
       <c r="R33" s="77"/>
       <c r="S33" s="48"/>
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
-      <c r="V33" s="133"/>
+      <c r="V33" s="91"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="77"/>
       <c r="Z33" s="48"/>
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
-      <c r="AC33" s="133"/>
+      <c r="AC33" s="91"/>
       <c r="AD33" s="48"/>
       <c r="AE33" s="48"/>
       <c r="AF33" s="77"/>
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
+      <c r="AJ33" s="135"/>
       <c r="AK33" s="48"/>
       <c r="AL33" s="77"/>
       <c r="AM33" s="48"/>
       <c r="AN33" s="48"/>
       <c r="AO33" s="48"/>
       <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
+      <c r="AQ33" s="91"/>
       <c r="AR33" s="48"/>
       <c r="AS33" s="77"/>
       <c r="AT33" s="48"/>
       <c r="AU33" s="48"/>
       <c r="AV33" s="48"/>
       <c r="AW33" s="78"/>
-      <c r="AX33" s="48"/>
+      <c r="AX33" s="91"/>
       <c r="AY33" s="48"/>
       <c r="AZ33" s="77"/>
       <c r="BA33" s="48"/>
       <c r="BB33" s="48"/>
       <c r="BC33" s="48"/>
       <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
+      <c r="BE33" s="91"/>
       <c r="BF33" s="48"/>
       <c r="BG33" s="77"/>
       <c r="BH33" s="79"/>
       <c r="BI33" s="79"/>
       <c r="BJ33" s="79"/>
       <c r="BK33" s="79"/>
-      <c r="BL33" s="79"/>
+      <c r="BL33" s="136"/>
       <c r="BM33" s="48"/>
       <c r="BN33" s="77"/>
       <c r="BO33" s="48"/>
       <c r="BP33" s="48"/>
       <c r="BQ33" s="48"/>
-      <c r="BR33" s="48"/>
+      <c r="BR33" s="91"/>
       <c r="BS33" s="48"/>
       <c r="BT33" s="48"/>
       <c r="BU33" s="77"/>
       <c r="BV33" s="48"/>
       <c r="BW33" s="48"/>
       <c r="BX33" s="48"/>
-      <c r="BY33" s="48"/>
+      <c r="BY33" s="91"/>
       <c r="BZ33" s="48"/>
       <c r="CA33" s="48"/>
       <c r="CB33" s="77"/>
       <c r="CC33" s="48"/>
       <c r="CD33" s="48"/>
       <c r="CE33" s="48"/>
-      <c r="CF33" s="48"/>
+      <c r="CF33" s="91"/>
       <c r="CG33" s="48"/>
       <c r="CH33" s="48"/>
       <c r="CI33" s="77"/>
       <c r="CJ33" s="48"/>
       <c r="CK33" s="48"/>
       <c r="CL33" s="48"/>
-      <c r="CM33" s="48"/>
+      <c r="CM33" s="135"/>
       <c r="CN33" s="48"/>
       <c r="CO33" s="48"/>
       <c r="CP33" s="77"/>
@@ -6144,13 +6437,13 @@
         <v>72</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
@@ -6161,83 +6454,83 @@
       <c r="L34" s="77"/>
       <c r="M34" s="77"/>
       <c r="N34" s="77"/>
-      <c r="O34" s="134"/>
+      <c r="O34" s="92"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="R34" s="77"/>
       <c r="S34" s="77"/>
       <c r="T34" s="77"/>
       <c r="U34" s="77"/>
-      <c r="V34" s="134"/>
+      <c r="V34" s="92"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="77"/>
       <c r="Z34" s="77"/>
       <c r="AA34" s="77"/>
       <c r="AB34" s="77"/>
-      <c r="AC34" s="134"/>
+      <c r="AC34" s="92"/>
       <c r="AD34" s="48"/>
       <c r="AE34" s="48"/>
       <c r="AF34" s="77"/>
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
+      <c r="AJ34" s="135"/>
       <c r="AK34" s="48"/>
       <c r="AL34" s="77"/>
       <c r="AM34" s="48"/>
       <c r="AN34" s="48"/>
       <c r="AO34" s="48"/>
       <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
+      <c r="AQ34" s="91"/>
       <c r="AR34" s="48"/>
       <c r="AS34" s="77"/>
       <c r="AT34" s="48"/>
       <c r="AU34" s="48"/>
       <c r="AV34" s="48"/>
       <c r="AW34" s="78"/>
-      <c r="AX34" s="48"/>
+      <c r="AX34" s="91"/>
       <c r="AY34" s="48"/>
       <c r="AZ34" s="77"/>
       <c r="BA34" s="48"/>
       <c r="BB34" s="48"/>
       <c r="BC34" s="48"/>
       <c r="BD34" s="48"/>
-      <c r="BE34" s="48"/>
+      <c r="BE34" s="91"/>
       <c r="BF34" s="48"/>
       <c r="BG34" s="77"/>
       <c r="BH34" s="79"/>
       <c r="BI34" s="79"/>
       <c r="BJ34" s="79"/>
       <c r="BK34" s="79"/>
-      <c r="BL34" s="79"/>
+      <c r="BL34" s="136"/>
       <c r="BM34" s="48"/>
       <c r="BN34" s="77"/>
       <c r="BO34" s="48"/>
       <c r="BP34" s="48"/>
       <c r="BQ34" s="48"/>
-      <c r="BR34" s="48"/>
+      <c r="BR34" s="91"/>
       <c r="BS34" s="48"/>
       <c r="BT34" s="48"/>
       <c r="BU34" s="77"/>
       <c r="BV34" s="48"/>
       <c r="BW34" s="48"/>
       <c r="BX34" s="48"/>
-      <c r="BY34" s="48"/>
+      <c r="BY34" s="91"/>
       <c r="BZ34" s="48"/>
       <c r="CA34" s="48"/>
       <c r="CB34" s="77"/>
       <c r="CC34" s="48"/>
       <c r="CD34" s="48"/>
       <c r="CE34" s="48"/>
-      <c r="CF34" s="48"/>
+      <c r="CF34" s="91"/>
       <c r="CG34" s="48"/>
       <c r="CH34" s="48"/>
       <c r="CI34" s="77"/>
       <c r="CJ34" s="48"/>
       <c r="CK34" s="48"/>
       <c r="CL34" s="48"/>
-      <c r="CM34" s="48"/>
+      <c r="CM34" s="135"/>
       <c r="CN34" s="48"/>
       <c r="CO34" s="48"/>
       <c r="CP34" s="77"/>
@@ -6247,13 +6540,13 @@
     <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>54</v>
@@ -6267,83 +6560,83 @@
       <c r="L35" s="77"/>
       <c r="M35" s="77"/>
       <c r="N35" s="77"/>
-      <c r="O35" s="134"/>
+      <c r="O35" s="92"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="77"/>
       <c r="S35" s="77"/>
       <c r="T35" s="77"/>
       <c r="U35" s="77"/>
-      <c r="V35" s="134"/>
+      <c r="V35" s="92"/>
       <c r="W35" s="48"/>
       <c r="X35" s="48"/>
       <c r="Y35" s="77"/>
       <c r="Z35" s="77"/>
       <c r="AA35" s="77"/>
       <c r="AB35" s="77"/>
-      <c r="AC35" s="134"/>
+      <c r="AC35" s="92"/>
       <c r="AD35" s="48"/>
       <c r="AE35" s="48"/>
       <c r="AF35" s="77"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
+      <c r="AJ35" s="135"/>
       <c r="AK35" s="48"/>
       <c r="AL35" s="77"/>
       <c r="AM35" s="48"/>
       <c r="AN35" s="48"/>
       <c r="AO35" s="48"/>
       <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
+      <c r="AQ35" s="91"/>
       <c r="AR35" s="48"/>
       <c r="AS35" s="77"/>
       <c r="AT35" s="48"/>
       <c r="AU35" s="48"/>
       <c r="AV35" s="48"/>
       <c r="AW35" s="78"/>
-      <c r="AX35" s="48"/>
+      <c r="AX35" s="91"/>
       <c r="AY35" s="48"/>
       <c r="AZ35" s="77"/>
       <c r="BA35" s="48"/>
       <c r="BB35" s="48"/>
       <c r="BC35" s="48"/>
       <c r="BD35" s="48"/>
-      <c r="BE35" s="48"/>
+      <c r="BE35" s="91"/>
       <c r="BF35" s="48"/>
       <c r="BG35" s="77"/>
       <c r="BH35" s="79"/>
       <c r="BI35" s="79"/>
       <c r="BJ35" s="79"/>
       <c r="BK35" s="79"/>
-      <c r="BL35" s="79"/>
+      <c r="BL35" s="136"/>
       <c r="BM35" s="48"/>
       <c r="BN35" s="77"/>
       <c r="BO35" s="48"/>
       <c r="BP35" s="48"/>
       <c r="BQ35" s="48"/>
-      <c r="BR35" s="48"/>
+      <c r="BR35" s="91"/>
       <c r="BS35" s="48"/>
       <c r="BT35" s="48"/>
       <c r="BU35" s="77"/>
       <c r="BV35" s="48"/>
       <c r="BW35" s="48"/>
       <c r="BX35" s="48"/>
-      <c r="BY35" s="48"/>
+      <c r="BY35" s="91"/>
       <c r="BZ35" s="48"/>
       <c r="CA35" s="48"/>
       <c r="CB35" s="77"/>
       <c r="CC35" s="48"/>
       <c r="CD35" s="48"/>
       <c r="CE35" s="48"/>
-      <c r="CF35" s="48"/>
+      <c r="CF35" s="91"/>
       <c r="CG35" s="48"/>
       <c r="CH35" s="48"/>
       <c r="CI35" s="77"/>
       <c r="CJ35" s="48"/>
       <c r="CK35" s="48"/>
       <c r="CL35" s="48"/>
-      <c r="CM35" s="48"/>
+      <c r="CM35" s="135"/>
       <c r="CN35" s="48"/>
       <c r="CO35" s="48"/>
       <c r="CP35" s="77"/>
@@ -6353,16 +6646,16 @@
     <row r="36" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
@@ -6373,83 +6666,83 @@
       <c r="L36" s="77"/>
       <c r="M36" s="77"/>
       <c r="N36" s="77"/>
-      <c r="O36" s="134"/>
+      <c r="O36" s="92"/>
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
       <c r="R36" s="77"/>
       <c r="S36" s="77"/>
       <c r="T36" s="77"/>
       <c r="U36" s="77"/>
-      <c r="V36" s="134"/>
+      <c r="V36" s="92"/>
       <c r="W36" s="48"/>
       <c r="X36" s="48"/>
       <c r="Y36" s="77"/>
       <c r="Z36" s="77"/>
       <c r="AA36" s="77"/>
       <c r="AB36" s="77"/>
-      <c r="AC36" s="134"/>
+      <c r="AC36" s="92"/>
       <c r="AD36" s="48"/>
       <c r="AE36" s="48"/>
       <c r="AF36" s="77"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
+      <c r="AJ36" s="135"/>
       <c r="AK36" s="48"/>
       <c r="AL36" s="77"/>
       <c r="AM36" s="48"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="48"/>
       <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
+      <c r="AQ36" s="91"/>
       <c r="AR36" s="48"/>
       <c r="AS36" s="77"/>
       <c r="AT36" s="48"/>
       <c r="AU36" s="48"/>
       <c r="AV36" s="48"/>
       <c r="AW36" s="78"/>
-      <c r="AX36" s="48"/>
+      <c r="AX36" s="91"/>
       <c r="AY36" s="48"/>
       <c r="AZ36" s="77"/>
       <c r="BA36" s="48"/>
       <c r="BB36" s="48"/>
       <c r="BC36" s="48"/>
       <c r="BD36" s="48"/>
-      <c r="BE36" s="48"/>
+      <c r="BE36" s="91"/>
       <c r="BF36" s="48"/>
       <c r="BG36" s="77"/>
       <c r="BH36" s="79"/>
       <c r="BI36" s="79"/>
       <c r="BJ36" s="79"/>
       <c r="BK36" s="79"/>
-      <c r="BL36" s="79"/>
+      <c r="BL36" s="136"/>
       <c r="BM36" s="48"/>
       <c r="BN36" s="77"/>
       <c r="BO36" s="48"/>
       <c r="BP36" s="48"/>
       <c r="BQ36" s="48"/>
-      <c r="BR36" s="48"/>
+      <c r="BR36" s="91"/>
       <c r="BS36" s="48"/>
       <c r="BT36" s="48"/>
       <c r="BU36" s="77"/>
       <c r="BV36" s="48"/>
       <c r="BW36" s="48"/>
       <c r="BX36" s="48"/>
-      <c r="BY36" s="48"/>
+      <c r="BY36" s="91"/>
       <c r="BZ36" s="48"/>
       <c r="CA36" s="48"/>
       <c r="CB36" s="77"/>
       <c r="CC36" s="48"/>
       <c r="CD36" s="48"/>
       <c r="CE36" s="48"/>
-      <c r="CF36" s="48"/>
+      <c r="CF36" s="91"/>
       <c r="CG36" s="48"/>
       <c r="CH36" s="48"/>
       <c r="CI36" s="77"/>
       <c r="CJ36" s="48"/>
       <c r="CK36" s="48"/>
       <c r="CL36" s="48"/>
-      <c r="CM36" s="48"/>
+      <c r="CM36" s="135"/>
       <c r="CN36" s="48"/>
       <c r="CO36" s="48"/>
       <c r="CP36" s="77"/>
@@ -6459,13 +6752,13 @@
     <row r="37" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E37" s="46" t="s">
         <v>54</v>
@@ -6479,83 +6772,83 @@
       <c r="L37" s="77"/>
       <c r="M37" s="77"/>
       <c r="N37" s="77"/>
-      <c r="O37" s="134"/>
+      <c r="O37" s="92"/>
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
       <c r="R37" s="77"/>
       <c r="S37" s="48"/>
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
-      <c r="V37" s="133"/>
+      <c r="V37" s="91"/>
       <c r="W37" s="48"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="77"/>
       <c r="Z37" s="77"/>
       <c r="AA37" s="77"/>
       <c r="AB37" s="77"/>
-      <c r="AC37" s="134"/>
+      <c r="AC37" s="92"/>
       <c r="AD37" s="48"/>
       <c r="AE37" s="48"/>
       <c r="AF37" s="77"/>
       <c r="AG37" s="48"/>
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
+      <c r="AJ37" s="135"/>
       <c r="AK37" s="48"/>
       <c r="AL37" s="77"/>
       <c r="AM37" s="48"/>
       <c r="AN37" s="48"/>
       <c r="AO37" s="48"/>
       <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
+      <c r="AQ37" s="91"/>
       <c r="AR37" s="48"/>
       <c r="AS37" s="77"/>
       <c r="AT37" s="48"/>
       <c r="AU37" s="48"/>
       <c r="AV37" s="48"/>
       <c r="AW37" s="78"/>
-      <c r="AX37" s="48"/>
+      <c r="AX37" s="91"/>
       <c r="AY37" s="48"/>
       <c r="AZ37" s="77"/>
       <c r="BA37" s="48"/>
       <c r="BB37" s="48"/>
       <c r="BC37" s="48"/>
       <c r="BD37" s="48"/>
-      <c r="BE37" s="48"/>
+      <c r="BE37" s="91"/>
       <c r="BF37" s="48"/>
       <c r="BG37" s="77"/>
       <c r="BH37" s="79"/>
       <c r="BI37" s="79"/>
       <c r="BJ37" s="79"/>
       <c r="BK37" s="79"/>
-      <c r="BL37" s="79"/>
+      <c r="BL37" s="136"/>
       <c r="BM37" s="48"/>
       <c r="BN37" s="77"/>
       <c r="BO37" s="48"/>
       <c r="BP37" s="48"/>
       <c r="BQ37" s="48"/>
-      <c r="BR37" s="48"/>
+      <c r="BR37" s="91"/>
       <c r="BS37" s="48"/>
       <c r="BT37" s="48"/>
       <c r="BU37" s="77"/>
       <c r="BV37" s="48"/>
       <c r="BW37" s="48"/>
       <c r="BX37" s="48"/>
-      <c r="BY37" s="48"/>
+      <c r="BY37" s="91"/>
       <c r="BZ37" s="48"/>
       <c r="CA37" s="48"/>
       <c r="CB37" s="77"/>
       <c r="CC37" s="48"/>
       <c r="CD37" s="48"/>
       <c r="CE37" s="48"/>
-      <c r="CF37" s="48"/>
+      <c r="CF37" s="91"/>
       <c r="CG37" s="48"/>
       <c r="CH37" s="48"/>
       <c r="CI37" s="77"/>
       <c r="CJ37" s="48"/>
       <c r="CK37" s="48"/>
       <c r="CL37" s="48"/>
-      <c r="CM37" s="48"/>
+      <c r="CM37" s="135"/>
       <c r="CN37" s="48"/>
       <c r="CO37" s="48"/>
       <c r="CP37" s="77"/>
@@ -6565,16 +6858,16 @@
     <row r="38" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -6585,83 +6878,83 @@
       <c r="L38" s="48"/>
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
-      <c r="O38" s="133"/>
+      <c r="O38" s="91"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="77"/>
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
       <c r="U38" s="48"/>
-      <c r="V38" s="133"/>
+      <c r="V38" s="91"/>
       <c r="W38" s="48"/>
       <c r="X38" s="48"/>
       <c r="Y38" s="77"/>
       <c r="Z38" s="77"/>
       <c r="AA38" s="77"/>
       <c r="AB38" s="77"/>
-      <c r="AC38" s="134"/>
+      <c r="AC38" s="92"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="48"/>
       <c r="AF38" s="77"/>
       <c r="AG38" s="77"/>
       <c r="AH38" s="48"/>
       <c r="AI38" s="48"/>
-      <c r="AJ38" s="48"/>
+      <c r="AJ38" s="135"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="77"/>
       <c r="AM38" s="48"/>
       <c r="AN38" s="48"/>
       <c r="AO38" s="48"/>
       <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
+      <c r="AQ38" s="91"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="48"/>
       <c r="AU38" s="48"/>
       <c r="AV38" s="48"/>
       <c r="AW38" s="78"/>
-      <c r="AX38" s="48"/>
+      <c r="AX38" s="91"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="77"/>
       <c r="BA38" s="48"/>
       <c r="BB38" s="48"/>
       <c r="BC38" s="48"/>
       <c r="BD38" s="48"/>
-      <c r="BE38" s="48"/>
+      <c r="BE38" s="91"/>
       <c r="BF38" s="48"/>
       <c r="BG38" s="77"/>
       <c r="BH38" s="79"/>
       <c r="BI38" s="79"/>
       <c r="BJ38" s="79"/>
       <c r="BK38" s="79"/>
-      <c r="BL38" s="79"/>
+      <c r="BL38" s="136"/>
       <c r="BM38" s="48"/>
       <c r="BN38" s="77"/>
       <c r="BO38" s="48"/>
       <c r="BP38" s="48"/>
       <c r="BQ38" s="48"/>
-      <c r="BR38" s="48"/>
+      <c r="BR38" s="91"/>
       <c r="BS38" s="48"/>
       <c r="BT38" s="48"/>
       <c r="BU38" s="77"/>
       <c r="BV38" s="48"/>
       <c r="BW38" s="48"/>
       <c r="BX38" s="48"/>
-      <c r="BY38" s="48"/>
+      <c r="BY38" s="91"/>
       <c r="BZ38" s="48"/>
       <c r="CA38" s="48"/>
       <c r="CB38" s="77"/>
       <c r="CC38" s="48"/>
       <c r="CD38" s="48"/>
       <c r="CE38" s="48"/>
-      <c r="CF38" s="48"/>
+      <c r="CF38" s="91"/>
       <c r="CG38" s="48"/>
       <c r="CH38" s="48"/>
       <c r="CI38" s="77"/>
       <c r="CJ38" s="48"/>
       <c r="CK38" s="48"/>
       <c r="CL38" s="48"/>
-      <c r="CM38" s="48"/>
+      <c r="CM38" s="135"/>
       <c r="CN38" s="48"/>
       <c r="CO38" s="48"/>
       <c r="CP38" s="77"/>
@@ -6671,13 +6964,13 @@
     <row r="39" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E39" s="46" t="s">
         <v>54</v>
@@ -6691,83 +6984,83 @@
       <c r="L39" s="48"/>
       <c r="M39" s="48"/>
       <c r="N39" s="48"/>
-      <c r="O39" s="133"/>
+      <c r="O39" s="91"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="77"/>
       <c r="S39" s="48"/>
       <c r="T39" s="48"/>
       <c r="U39" s="48"/>
-      <c r="V39" s="133"/>
+      <c r="V39" s="91"/>
       <c r="W39" s="48"/>
       <c r="X39" s="48"/>
       <c r="Y39" s="77"/>
       <c r="Z39" s="77"/>
       <c r="AA39" s="77"/>
       <c r="AB39" s="77"/>
-      <c r="AC39" s="134"/>
+      <c r="AC39" s="92"/>
       <c r="AD39" s="48"/>
       <c r="AE39" s="48"/>
       <c r="AF39" s="77"/>
       <c r="AG39" s="77"/>
       <c r="AH39" s="48"/>
       <c r="AI39" s="48"/>
-      <c r="AJ39" s="48"/>
+      <c r="AJ39" s="135"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="77"/>
       <c r="AM39" s="48"/>
       <c r="AN39" s="48"/>
       <c r="AO39" s="48"/>
       <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
+      <c r="AQ39" s="91"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="77"/>
       <c r="AT39" s="48"/>
       <c r="AU39" s="48"/>
       <c r="AV39" s="48"/>
       <c r="AW39" s="78"/>
-      <c r="AX39" s="48"/>
+      <c r="AX39" s="91"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="77"/>
       <c r="BA39" s="48"/>
       <c r="BB39" s="48"/>
       <c r="BC39" s="48"/>
       <c r="BD39" s="48"/>
-      <c r="BE39" s="48"/>
+      <c r="BE39" s="91"/>
       <c r="BF39" s="48"/>
       <c r="BG39" s="77"/>
       <c r="BH39" s="79"/>
       <c r="BI39" s="79"/>
       <c r="BJ39" s="79"/>
       <c r="BK39" s="79"/>
-      <c r="BL39" s="79"/>
+      <c r="BL39" s="136"/>
       <c r="BM39" s="48"/>
       <c r="BN39" s="77"/>
       <c r="BO39" s="48"/>
       <c r="BP39" s="48"/>
       <c r="BQ39" s="48"/>
-      <c r="BR39" s="48"/>
+      <c r="BR39" s="91"/>
       <c r="BS39" s="48"/>
       <c r="BT39" s="48"/>
       <c r="BU39" s="77"/>
       <c r="BV39" s="48"/>
       <c r="BW39" s="48"/>
       <c r="BX39" s="48"/>
-      <c r="BY39" s="48"/>
+      <c r="BY39" s="91"/>
       <c r="BZ39" s="48"/>
       <c r="CA39" s="48"/>
       <c r="CB39" s="77"/>
       <c r="CC39" s="48"/>
       <c r="CD39" s="48"/>
       <c r="CE39" s="48"/>
-      <c r="CF39" s="48"/>
+      <c r="CF39" s="91"/>
       <c r="CG39" s="48"/>
       <c r="CH39" s="48"/>
       <c r="CI39" s="77"/>
       <c r="CJ39" s="48"/>
       <c r="CK39" s="48"/>
       <c r="CL39" s="48"/>
-      <c r="CM39" s="48"/>
+      <c r="CM39" s="135"/>
       <c r="CN39" s="48"/>
       <c r="CO39" s="48"/>
       <c r="CP39" s="77"/>
@@ -6777,16 +7070,16 @@
     <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -6797,83 +7090,83 @@
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
       <c r="N40" s="48"/>
-      <c r="O40" s="133"/>
+      <c r="O40" s="91"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="77"/>
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
-      <c r="V40" s="133"/>
+      <c r="V40" s="91"/>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="77"/>
       <c r="Z40" s="77"/>
       <c r="AA40" s="77"/>
       <c r="AB40" s="77"/>
-      <c r="AC40" s="134"/>
+      <c r="AC40" s="92"/>
       <c r="AD40" s="48"/>
       <c r="AE40" s="48"/>
       <c r="AF40" s="77"/>
       <c r="AG40" s="77"/>
       <c r="AH40" s="48"/>
       <c r="AI40" s="48"/>
-      <c r="AJ40" s="48"/>
+      <c r="AJ40" s="135"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="77"/>
       <c r="AM40" s="48"/>
       <c r="AN40" s="48"/>
       <c r="AO40" s="48"/>
       <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
+      <c r="AQ40" s="91"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="77"/>
       <c r="AT40" s="48"/>
       <c r="AU40" s="48"/>
       <c r="AV40" s="48"/>
       <c r="AW40" s="78"/>
-      <c r="AX40" s="48"/>
+      <c r="AX40" s="91"/>
       <c r="AY40" s="48"/>
       <c r="AZ40" s="77"/>
       <c r="BA40" s="48"/>
       <c r="BB40" s="48"/>
       <c r="BC40" s="48"/>
       <c r="BD40" s="48"/>
-      <c r="BE40" s="48"/>
+      <c r="BE40" s="91"/>
       <c r="BF40" s="48"/>
       <c r="BG40" s="77"/>
       <c r="BH40" s="79"/>
       <c r="BI40" s="79"/>
       <c r="BJ40" s="79"/>
       <c r="BK40" s="79"/>
-      <c r="BL40" s="79"/>
+      <c r="BL40" s="136"/>
       <c r="BM40" s="48"/>
       <c r="BN40" s="77"/>
       <c r="BO40" s="48"/>
       <c r="BP40" s="48"/>
       <c r="BQ40" s="48"/>
-      <c r="BR40" s="48"/>
+      <c r="BR40" s="91"/>
       <c r="BS40" s="48"/>
       <c r="BT40" s="48"/>
       <c r="BU40" s="77"/>
       <c r="BV40" s="48"/>
       <c r="BW40" s="48"/>
       <c r="BX40" s="48"/>
-      <c r="BY40" s="48"/>
+      <c r="BY40" s="91"/>
       <c r="BZ40" s="48"/>
       <c r="CA40" s="48"/>
       <c r="CB40" s="77"/>
       <c r="CC40" s="48"/>
       <c r="CD40" s="48"/>
       <c r="CE40" s="48"/>
-      <c r="CF40" s="48"/>
+      <c r="CF40" s="91"/>
       <c r="CG40" s="48"/>
       <c r="CH40" s="48"/>
       <c r="CI40" s="77"/>
       <c r="CJ40" s="48"/>
       <c r="CK40" s="48"/>
       <c r="CL40" s="48"/>
-      <c r="CM40" s="48"/>
+      <c r="CM40" s="135"/>
       <c r="CN40" s="48"/>
       <c r="CO40" s="48"/>
       <c r="CP40" s="77"/>
@@ -6883,13 +7176,13 @@
     <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E41" s="46" t="s">
         <v>54</v>
@@ -6903,102 +7196,102 @@
       <c r="L41" s="48"/>
       <c r="M41" s="48"/>
       <c r="N41" s="48"/>
-      <c r="O41" s="133"/>
+      <c r="O41" s="91"/>
       <c r="P41" s="48"/>
       <c r="Q41" s="48"/>
       <c r="R41" s="77"/>
       <c r="S41" s="48"/>
       <c r="T41" s="48"/>
       <c r="U41" s="48"/>
-      <c r="V41" s="133"/>
+      <c r="V41" s="91"/>
       <c r="W41" s="48"/>
       <c r="X41" s="48"/>
       <c r="Y41" s="77"/>
       <c r="Z41" s="77"/>
       <c r="AA41" s="77"/>
       <c r="AB41" s="77"/>
-      <c r="AC41" s="134"/>
+      <c r="AC41" s="92"/>
       <c r="AD41" s="48"/>
       <c r="AE41" s="48"/>
       <c r="AF41" s="77"/>
       <c r="AG41" s="77"/>
       <c r="AH41" s="48"/>
       <c r="AI41" s="48"/>
-      <c r="AJ41" s="48"/>
+      <c r="AJ41" s="135"/>
       <c r="AK41" s="48"/>
       <c r="AL41" s="77"/>
       <c r="AM41" s="48"/>
       <c r="AN41" s="48"/>
       <c r="AO41" s="48"/>
       <c r="AP41" s="48"/>
-      <c r="AQ41" s="48"/>
+      <c r="AQ41" s="91"/>
       <c r="AR41" s="48"/>
       <c r="AS41" s="77"/>
       <c r="AT41" s="48"/>
       <c r="AU41" s="48"/>
       <c r="AV41" s="48"/>
       <c r="AW41" s="78"/>
-      <c r="AX41" s="48"/>
+      <c r="AX41" s="91"/>
       <c r="AY41" s="48"/>
       <c r="AZ41" s="77"/>
       <c r="BA41" s="48"/>
       <c r="BB41" s="48"/>
       <c r="BC41" s="48"/>
       <c r="BD41" s="48"/>
-      <c r="BE41" s="48"/>
+      <c r="BE41" s="91"/>
       <c r="BF41" s="48"/>
       <c r="BG41" s="77"/>
       <c r="BH41" s="79"/>
       <c r="BI41" s="79"/>
       <c r="BJ41" s="79"/>
       <c r="BK41" s="79"/>
-      <c r="BL41" s="79"/>
+      <c r="BL41" s="136"/>
       <c r="BM41" s="48"/>
       <c r="BN41" s="77"/>
       <c r="BO41" s="48"/>
       <c r="BP41" s="48"/>
       <c r="BQ41" s="48"/>
-      <c r="BR41" s="48"/>
+      <c r="BR41" s="91"/>
       <c r="BS41" s="48"/>
       <c r="BT41" s="48"/>
       <c r="BU41" s="77"/>
       <c r="BV41" s="48"/>
       <c r="BW41" s="48"/>
       <c r="BX41" s="48"/>
-      <c r="BY41" s="48"/>
+      <c r="BY41" s="91"/>
       <c r="BZ41" s="48"/>
       <c r="CA41" s="48"/>
       <c r="CB41" s="77"/>
       <c r="CC41" s="48"/>
       <c r="CD41" s="48"/>
       <c r="CE41" s="48"/>
-      <c r="CF41" s="48"/>
+      <c r="CF41" s="91"/>
       <c r="CG41" s="48"/>
       <c r="CH41" s="48"/>
       <c r="CI41" s="77"/>
       <c r="CJ41" s="48"/>
       <c r="CK41" s="48"/>
       <c r="CL41" s="48"/>
-      <c r="CM41" s="48"/>
+      <c r="CM41" s="135"/>
       <c r="CN41" s="48"/>
       <c r="CO41" s="48"/>
       <c r="CP41" s="77"/>
       <c r="CQ41" s="48"/>
       <c r="CR41" s="48"/>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
@@ -7009,83 +7302,83 @@
       <c r="L42" s="48"/>
       <c r="M42" s="48"/>
       <c r="N42" s="48"/>
-      <c r="O42" s="133"/>
+      <c r="O42" s="91"/>
       <c r="P42" s="48"/>
       <c r="Q42" s="48"/>
       <c r="R42" s="77"/>
       <c r="S42" s="48"/>
       <c r="T42" s="48"/>
       <c r="U42" s="48"/>
-      <c r="V42" s="133"/>
+      <c r="V42" s="91"/>
       <c r="W42" s="48"/>
       <c r="X42" s="48"/>
       <c r="Y42" s="77"/>
       <c r="Z42" s="77"/>
       <c r="AA42" s="77"/>
       <c r="AB42" s="77"/>
-      <c r="AC42" s="134"/>
+      <c r="AC42" s="92"/>
       <c r="AD42" s="48"/>
       <c r="AE42" s="48"/>
       <c r="AF42" s="77"/>
       <c r="AG42" s="77"/>
       <c r="AH42" s="48"/>
       <c r="AI42" s="48"/>
-      <c r="AJ42" s="48"/>
+      <c r="AJ42" s="135"/>
       <c r="AK42" s="48"/>
       <c r="AL42" s="77"/>
       <c r="AM42" s="48"/>
       <c r="AN42" s="48"/>
       <c r="AO42" s="48"/>
       <c r="AP42" s="48"/>
-      <c r="AQ42" s="48"/>
+      <c r="AQ42" s="91"/>
       <c r="AR42" s="48"/>
       <c r="AS42" s="77"/>
       <c r="AT42" s="48"/>
       <c r="AU42" s="48"/>
       <c r="AV42" s="48"/>
       <c r="AW42" s="78"/>
-      <c r="AX42" s="48"/>
+      <c r="AX42" s="91"/>
       <c r="AY42" s="48"/>
       <c r="AZ42" s="77"/>
       <c r="BA42" s="48"/>
       <c r="BB42" s="48"/>
       <c r="BC42" s="48"/>
       <c r="BD42" s="48"/>
-      <c r="BE42" s="48"/>
+      <c r="BE42" s="91"/>
       <c r="BF42" s="48"/>
       <c r="BG42" s="77"/>
       <c r="BH42" s="79"/>
       <c r="BI42" s="79"/>
       <c r="BJ42" s="79"/>
       <c r="BK42" s="79"/>
-      <c r="BL42" s="79"/>
+      <c r="BL42" s="136"/>
       <c r="BM42" s="48"/>
       <c r="BN42" s="77"/>
       <c r="BO42" s="48"/>
       <c r="BP42" s="48"/>
       <c r="BQ42" s="48"/>
-      <c r="BR42" s="48"/>
+      <c r="BR42" s="91"/>
       <c r="BS42" s="48"/>
       <c r="BT42" s="48"/>
       <c r="BU42" s="77"/>
       <c r="BV42" s="48"/>
       <c r="BW42" s="48"/>
       <c r="BX42" s="48"/>
-      <c r="BY42" s="48"/>
+      <c r="BY42" s="91"/>
       <c r="BZ42" s="48"/>
       <c r="CA42" s="48"/>
       <c r="CB42" s="77"/>
       <c r="CC42" s="48"/>
       <c r="CD42" s="48"/>
       <c r="CE42" s="48"/>
-      <c r="CF42" s="48"/>
+      <c r="CF42" s="91"/>
       <c r="CG42" s="48"/>
       <c r="CH42" s="48"/>
       <c r="CI42" s="77"/>
       <c r="CJ42" s="48"/>
       <c r="CK42" s="48"/>
       <c r="CL42" s="48"/>
-      <c r="CM42" s="48"/>
+      <c r="CM42" s="135"/>
       <c r="CN42" s="48"/>
       <c r="CO42" s="48"/>
       <c r="CP42" s="77"/>
@@ -7095,13 +7388,13 @@
     <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E43" s="46" t="s">
         <v>54</v>
@@ -7115,83 +7408,83 @@
       <c r="L43" s="48"/>
       <c r="M43" s="48"/>
       <c r="N43" s="48"/>
-      <c r="O43" s="133"/>
+      <c r="O43" s="91"/>
       <c r="P43" s="48"/>
       <c r="Q43" s="48"/>
       <c r="R43" s="77"/>
       <c r="S43" s="48"/>
       <c r="T43" s="48"/>
       <c r="U43" s="48"/>
-      <c r="V43" s="133"/>
+      <c r="V43" s="91"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="77"/>
       <c r="Z43" s="77"/>
       <c r="AA43" s="77"/>
       <c r="AB43" s="77"/>
-      <c r="AC43" s="134"/>
+      <c r="AC43" s="92"/>
       <c r="AD43" s="48"/>
       <c r="AE43" s="48"/>
       <c r="AF43" s="77"/>
       <c r="AG43" s="77"/>
       <c r="AH43" s="48"/>
       <c r="AI43" s="48"/>
-      <c r="AJ43" s="48"/>
+      <c r="AJ43" s="135"/>
       <c r="AK43" s="48"/>
       <c r="AL43" s="77"/>
       <c r="AM43" s="48"/>
       <c r="AN43" s="48"/>
       <c r="AO43" s="48"/>
       <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
+      <c r="AQ43" s="91"/>
       <c r="AR43" s="48"/>
       <c r="AS43" s="77"/>
       <c r="AT43" s="48"/>
       <c r="AU43" s="48"/>
       <c r="AV43" s="48"/>
       <c r="AW43" s="78"/>
-      <c r="AX43" s="48"/>
+      <c r="AX43" s="91"/>
       <c r="AY43" s="48"/>
       <c r="AZ43" s="77"/>
       <c r="BA43" s="48"/>
       <c r="BB43" s="48"/>
       <c r="BC43" s="48"/>
       <c r="BD43" s="48"/>
-      <c r="BE43" s="48"/>
+      <c r="BE43" s="91"/>
       <c r="BF43" s="48"/>
       <c r="BG43" s="77"/>
       <c r="BH43" s="79"/>
       <c r="BI43" s="79"/>
       <c r="BJ43" s="79"/>
       <c r="BK43" s="79"/>
-      <c r="BL43" s="79"/>
+      <c r="BL43" s="136"/>
       <c r="BM43" s="48"/>
       <c r="BN43" s="77"/>
       <c r="BO43" s="48"/>
       <c r="BP43" s="48"/>
       <c r="BQ43" s="48"/>
-      <c r="BR43" s="48"/>
+      <c r="BR43" s="91"/>
       <c r="BS43" s="48"/>
       <c r="BT43" s="48"/>
       <c r="BU43" s="77"/>
       <c r="BV43" s="48"/>
       <c r="BW43" s="48"/>
       <c r="BX43" s="48"/>
-      <c r="BY43" s="48"/>
+      <c r="BY43" s="91"/>
       <c r="BZ43" s="48"/>
       <c r="CA43" s="48"/>
       <c r="CB43" s="77"/>
       <c r="CC43" s="48"/>
       <c r="CD43" s="48"/>
       <c r="CE43" s="48"/>
-      <c r="CF43" s="48"/>
+      <c r="CF43" s="91"/>
       <c r="CG43" s="48"/>
       <c r="CH43" s="48"/>
       <c r="CI43" s="77"/>
       <c r="CJ43" s="48"/>
       <c r="CK43" s="48"/>
       <c r="CL43" s="48"/>
-      <c r="CM43" s="48"/>
+      <c r="CM43" s="135"/>
       <c r="CN43" s="48"/>
       <c r="CO43" s="48"/>
       <c r="CP43" s="77"/>
@@ -7201,16 +7494,16 @@
     <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>111</v>
-      </c>
       <c r="D44" s="60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
@@ -7221,83 +7514,83 @@
       <c r="L44" s="48"/>
       <c r="M44" s="48"/>
       <c r="N44" s="48"/>
-      <c r="O44" s="133"/>
+      <c r="O44" s="91"/>
       <c r="P44" s="48"/>
       <c r="Q44" s="48"/>
       <c r="R44" s="77"/>
       <c r="S44" s="48"/>
       <c r="T44" s="48"/>
       <c r="U44" s="48"/>
-      <c r="V44" s="133"/>
+      <c r="V44" s="91"/>
       <c r="W44" s="48"/>
       <c r="X44" s="48"/>
       <c r="Y44" s="77"/>
       <c r="Z44" s="77"/>
       <c r="AA44" s="77"/>
       <c r="AB44" s="77"/>
-      <c r="AC44" s="134"/>
+      <c r="AC44" s="92"/>
       <c r="AD44" s="48"/>
       <c r="AE44" s="48"/>
       <c r="AF44" s="77"/>
       <c r="AG44" s="77"/>
       <c r="AH44" s="48"/>
       <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
+      <c r="AJ44" s="135"/>
       <c r="AK44" s="48"/>
       <c r="AL44" s="77"/>
       <c r="AM44" s="48"/>
       <c r="AN44" s="48"/>
       <c r="AO44" s="48"/>
       <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
+      <c r="AQ44" s="91"/>
       <c r="AR44" s="48"/>
       <c r="AS44" s="77"/>
       <c r="AT44" s="48"/>
       <c r="AU44" s="48"/>
       <c r="AV44" s="48"/>
       <c r="AW44" s="78"/>
-      <c r="AX44" s="48"/>
+      <c r="AX44" s="91"/>
       <c r="AY44" s="48"/>
       <c r="AZ44" s="77"/>
       <c r="BA44" s="48"/>
       <c r="BB44" s="48"/>
       <c r="BC44" s="48"/>
       <c r="BD44" s="48"/>
-      <c r="BE44" s="48"/>
+      <c r="BE44" s="91"/>
       <c r="BF44" s="48"/>
       <c r="BG44" s="77"/>
       <c r="BH44" s="79"/>
       <c r="BI44" s="79"/>
       <c r="BJ44" s="79"/>
       <c r="BK44" s="79"/>
-      <c r="BL44" s="79"/>
+      <c r="BL44" s="136"/>
       <c r="BM44" s="48"/>
       <c r="BN44" s="77"/>
       <c r="BO44" s="48"/>
       <c r="BP44" s="48"/>
       <c r="BQ44" s="48"/>
-      <c r="BR44" s="48"/>
+      <c r="BR44" s="91"/>
       <c r="BS44" s="48"/>
       <c r="BT44" s="48"/>
       <c r="BU44" s="77"/>
       <c r="BV44" s="48"/>
       <c r="BW44" s="48"/>
       <c r="BX44" s="48"/>
-      <c r="BY44" s="48"/>
+      <c r="BY44" s="91"/>
       <c r="BZ44" s="48"/>
       <c r="CA44" s="48"/>
       <c r="CB44" s="77"/>
       <c r="CC44" s="48"/>
       <c r="CD44" s="48"/>
       <c r="CE44" s="48"/>
-      <c r="CF44" s="48"/>
+      <c r="CF44" s="91"/>
       <c r="CG44" s="48"/>
       <c r="CH44" s="48"/>
       <c r="CI44" s="77"/>
       <c r="CJ44" s="48"/>
       <c r="CK44" s="48"/>
       <c r="CL44" s="48"/>
-      <c r="CM44" s="48"/>
+      <c r="CM44" s="135"/>
       <c r="CN44" s="48"/>
       <c r="CO44" s="48"/>
       <c r="CP44" s="77"/>
@@ -7307,16 +7600,16 @@
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
@@ -7327,83 +7620,83 @@
       <c r="L45" s="48"/>
       <c r="M45" s="48"/>
       <c r="N45" s="48"/>
-      <c r="O45" s="133"/>
+      <c r="O45" s="91"/>
       <c r="P45" s="48"/>
       <c r="Q45" s="48"/>
       <c r="R45" s="77"/>
       <c r="S45" s="48"/>
       <c r="T45" s="48"/>
       <c r="U45" s="48"/>
-      <c r="V45" s="133"/>
+      <c r="V45" s="91"/>
       <c r="W45" s="48"/>
       <c r="X45" s="48"/>
       <c r="Y45" s="77"/>
       <c r="Z45" s="77"/>
       <c r="AA45" s="77"/>
       <c r="AB45" s="77"/>
-      <c r="AC45" s="134"/>
+      <c r="AC45" s="92"/>
       <c r="AD45" s="48"/>
       <c r="AE45" s="48"/>
       <c r="AF45" s="77"/>
       <c r="AG45" s="77"/>
       <c r="AH45" s="48"/>
       <c r="AI45" s="48"/>
-      <c r="AJ45" s="48"/>
+      <c r="AJ45" s="135"/>
       <c r="AK45" s="48"/>
       <c r="AL45" s="77"/>
       <c r="AM45" s="48"/>
       <c r="AN45" s="48"/>
       <c r="AO45" s="48"/>
       <c r="AP45" s="48"/>
-      <c r="AQ45" s="48"/>
+      <c r="AQ45" s="91"/>
       <c r="AR45" s="48"/>
       <c r="AS45" s="77"/>
       <c r="AT45" s="48"/>
       <c r="AU45" s="48"/>
       <c r="AV45" s="48"/>
       <c r="AW45" s="78"/>
-      <c r="AX45" s="48"/>
+      <c r="AX45" s="91"/>
       <c r="AY45" s="48"/>
       <c r="AZ45" s="77"/>
       <c r="BA45" s="48"/>
       <c r="BB45" s="48"/>
       <c r="BC45" s="48"/>
       <c r="BD45" s="48"/>
-      <c r="BE45" s="48"/>
+      <c r="BE45" s="91"/>
       <c r="BF45" s="48"/>
       <c r="BG45" s="77"/>
       <c r="BH45" s="79"/>
       <c r="BI45" s="79"/>
       <c r="BJ45" s="79"/>
       <c r="BK45" s="79"/>
-      <c r="BL45" s="79"/>
+      <c r="BL45" s="136"/>
       <c r="BM45" s="48"/>
       <c r="BN45" s="77"/>
       <c r="BO45" s="48"/>
       <c r="BP45" s="48"/>
       <c r="BQ45" s="48"/>
-      <c r="BR45" s="48"/>
+      <c r="BR45" s="91"/>
       <c r="BS45" s="48"/>
       <c r="BT45" s="48"/>
       <c r="BU45" s="77"/>
       <c r="BV45" s="48"/>
       <c r="BW45" s="48"/>
       <c r="BX45" s="48"/>
-      <c r="BY45" s="48"/>
+      <c r="BY45" s="91"/>
       <c r="BZ45" s="48"/>
       <c r="CA45" s="48"/>
       <c r="CB45" s="77"/>
       <c r="CC45" s="48"/>
       <c r="CD45" s="48"/>
       <c r="CE45" s="48"/>
-      <c r="CF45" s="48"/>
+      <c r="CF45" s="91"/>
       <c r="CG45" s="48"/>
       <c r="CH45" s="48"/>
       <c r="CI45" s="77"/>
       <c r="CJ45" s="48"/>
       <c r="CK45" s="48"/>
       <c r="CL45" s="48"/>
-      <c r="CM45" s="48"/>
+      <c r="CM45" s="135"/>
       <c r="CN45" s="48"/>
       <c r="CO45" s="48"/>
       <c r="CP45" s="77"/>
@@ -7413,13 +7706,13 @@
     <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E46" s="46" t="s">
         <v>54</v>
@@ -7433,83 +7726,83 @@
       <c r="L46" s="48"/>
       <c r="M46" s="48"/>
       <c r="N46" s="48"/>
-      <c r="O46" s="133"/>
+      <c r="O46" s="91"/>
       <c r="P46" s="48"/>
       <c r="Q46" s="48"/>
       <c r="R46" s="77"/>
       <c r="S46" s="48"/>
       <c r="T46" s="48"/>
       <c r="U46" s="48"/>
-      <c r="V46" s="133"/>
+      <c r="V46" s="91"/>
       <c r="W46" s="48"/>
       <c r="X46" s="48"/>
       <c r="Y46" s="77"/>
       <c r="Z46" s="77"/>
       <c r="AA46" s="77"/>
       <c r="AB46" s="77"/>
-      <c r="AC46" s="134"/>
+      <c r="AC46" s="92"/>
       <c r="AD46" s="48"/>
       <c r="AE46" s="48"/>
       <c r="AF46" s="77"/>
       <c r="AG46" s="77"/>
       <c r="AH46" s="48"/>
       <c r="AI46" s="48"/>
-      <c r="AJ46" s="48"/>
+      <c r="AJ46" s="135"/>
       <c r="AK46" s="48"/>
       <c r="AL46" s="77"/>
       <c r="AM46" s="48"/>
       <c r="AN46" s="48"/>
       <c r="AO46" s="48"/>
       <c r="AP46" s="48"/>
-      <c r="AQ46" s="48"/>
+      <c r="AQ46" s="91"/>
       <c r="AR46" s="48"/>
       <c r="AS46" s="77"/>
       <c r="AT46" s="48"/>
       <c r="AU46" s="48"/>
       <c r="AV46" s="48"/>
       <c r="AW46" s="78"/>
-      <c r="AX46" s="48"/>
+      <c r="AX46" s="91"/>
       <c r="AY46" s="48"/>
       <c r="AZ46" s="77"/>
       <c r="BA46" s="48"/>
       <c r="BB46" s="48"/>
       <c r="BC46" s="48"/>
       <c r="BD46" s="48"/>
-      <c r="BE46" s="48"/>
+      <c r="BE46" s="91"/>
       <c r="BF46" s="48"/>
       <c r="BG46" s="77"/>
       <c r="BH46" s="79"/>
       <c r="BI46" s="79"/>
       <c r="BJ46" s="79"/>
       <c r="BK46" s="79"/>
-      <c r="BL46" s="79"/>
+      <c r="BL46" s="136"/>
       <c r="BM46" s="48"/>
       <c r="BN46" s="77"/>
       <c r="BO46" s="48"/>
       <c r="BP46" s="48"/>
       <c r="BQ46" s="48"/>
-      <c r="BR46" s="48"/>
+      <c r="BR46" s="91"/>
       <c r="BS46" s="48"/>
       <c r="BT46" s="48"/>
       <c r="BU46" s="77"/>
       <c r="BV46" s="48"/>
       <c r="BW46" s="48"/>
       <c r="BX46" s="48"/>
-      <c r="BY46" s="48"/>
+      <c r="BY46" s="91"/>
       <c r="BZ46" s="48"/>
       <c r="CA46" s="48"/>
       <c r="CB46" s="77"/>
       <c r="CC46" s="48"/>
       <c r="CD46" s="48"/>
       <c r="CE46" s="48"/>
-      <c r="CF46" s="48"/>
+      <c r="CF46" s="91"/>
       <c r="CG46" s="48"/>
       <c r="CH46" s="48"/>
       <c r="CI46" s="77"/>
       <c r="CJ46" s="48"/>
       <c r="CK46" s="48"/>
       <c r="CL46" s="48"/>
-      <c r="CM46" s="48"/>
+      <c r="CM46" s="135"/>
       <c r="CN46" s="48"/>
       <c r="CO46" s="48"/>
       <c r="CP46" s="77"/>
@@ -7531,83 +7824,83 @@
       <c r="L47" s="48"/>
       <c r="M47" s="48"/>
       <c r="N47" s="48"/>
-      <c r="O47" s="133"/>
+      <c r="O47" s="91"/>
       <c r="P47" s="48"/>
       <c r="Q47" s="48"/>
       <c r="R47" s="77"/>
       <c r="S47" s="48"/>
       <c r="T47" s="48"/>
       <c r="U47" s="48"/>
-      <c r="V47" s="133"/>
+      <c r="V47" s="91"/>
       <c r="W47" s="48"/>
       <c r="X47" s="48"/>
       <c r="Y47" s="77"/>
       <c r="Z47" s="77"/>
       <c r="AA47" s="77"/>
       <c r="AB47" s="77"/>
-      <c r="AC47" s="134"/>
+      <c r="AC47" s="92"/>
       <c r="AD47" s="48"/>
       <c r="AE47" s="48"/>
       <c r="AF47" s="77"/>
       <c r="AG47" s="77"/>
       <c r="AH47" s="48"/>
       <c r="AI47" s="48"/>
-      <c r="AJ47" s="48"/>
+      <c r="AJ47" s="135"/>
       <c r="AK47" s="48"/>
       <c r="AL47" s="77"/>
       <c r="AM47" s="48"/>
       <c r="AN47" s="48"/>
       <c r="AO47" s="48"/>
       <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
+      <c r="AQ47" s="91"/>
       <c r="AR47" s="48"/>
       <c r="AS47" s="77"/>
       <c r="AT47" s="48"/>
       <c r="AU47" s="48"/>
       <c r="AV47" s="48"/>
       <c r="AW47" s="78"/>
-      <c r="AX47" s="48"/>
+      <c r="AX47" s="91"/>
       <c r="AY47" s="48"/>
       <c r="AZ47" s="77"/>
       <c r="BA47" s="48"/>
       <c r="BB47" s="48"/>
       <c r="BC47" s="48"/>
       <c r="BD47" s="48"/>
-      <c r="BE47" s="48"/>
+      <c r="BE47" s="91"/>
       <c r="BF47" s="48"/>
       <c r="BG47" s="77"/>
       <c r="BH47" s="79"/>
       <c r="BI47" s="79"/>
       <c r="BJ47" s="79"/>
       <c r="BK47" s="79"/>
-      <c r="BL47" s="79"/>
+      <c r="BL47" s="136"/>
       <c r="BM47" s="48"/>
       <c r="BN47" s="77"/>
       <c r="BO47" s="48"/>
       <c r="BP47" s="48"/>
       <c r="BQ47" s="48"/>
-      <c r="BR47" s="48"/>
+      <c r="BR47" s="91"/>
       <c r="BS47" s="48"/>
       <c r="BT47" s="48"/>
       <c r="BU47" s="77"/>
       <c r="BV47" s="48"/>
       <c r="BW47" s="48"/>
       <c r="BX47" s="48"/>
-      <c r="BY47" s="48"/>
+      <c r="BY47" s="91"/>
       <c r="BZ47" s="48"/>
       <c r="CA47" s="48"/>
       <c r="CB47" s="77"/>
       <c r="CC47" s="48"/>
       <c r="CD47" s="48"/>
       <c r="CE47" s="48"/>
-      <c r="CF47" s="48"/>
+      <c r="CF47" s="91"/>
       <c r="CG47" s="48"/>
       <c r="CH47" s="48"/>
       <c r="CI47" s="77"/>
       <c r="CJ47" s="48"/>
       <c r="CK47" s="48"/>
       <c r="CL47" s="48"/>
-      <c r="CM47" s="48"/>
+      <c r="CM47" s="135"/>
       <c r="CN47" s="48"/>
       <c r="CO47" s="48"/>
       <c r="CP47" s="77"/>
@@ -7629,83 +7922,83 @@
       <c r="L48" s="48"/>
       <c r="M48" s="48"/>
       <c r="N48" s="48"/>
-      <c r="O48" s="133"/>
+      <c r="O48" s="91"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="48"/>
       <c r="R48" s="77"/>
       <c r="S48" s="48"/>
       <c r="T48" s="48"/>
       <c r="U48" s="48"/>
-      <c r="V48" s="133"/>
+      <c r="V48" s="91"/>
       <c r="W48" s="48"/>
       <c r="X48" s="48"/>
       <c r="Y48" s="77"/>
       <c r="Z48" s="77"/>
       <c r="AA48" s="77"/>
       <c r="AB48" s="77"/>
-      <c r="AC48" s="134"/>
+      <c r="AC48" s="92"/>
       <c r="AD48" s="48"/>
       <c r="AE48" s="48"/>
       <c r="AF48" s="77"/>
       <c r="AG48" s="77"/>
       <c r="AH48" s="48"/>
       <c r="AI48" s="48"/>
-      <c r="AJ48" s="48"/>
+      <c r="AJ48" s="135"/>
       <c r="AK48" s="48"/>
       <c r="AL48" s="77"/>
       <c r="AM48" s="48"/>
       <c r="AN48" s="48"/>
       <c r="AO48" s="48"/>
       <c r="AP48" s="48"/>
-      <c r="AQ48" s="48"/>
+      <c r="AQ48" s="91"/>
       <c r="AR48" s="48"/>
       <c r="AS48" s="77"/>
       <c r="AT48" s="48"/>
       <c r="AU48" s="48"/>
       <c r="AV48" s="48"/>
       <c r="AW48" s="78"/>
-      <c r="AX48" s="48"/>
+      <c r="AX48" s="91"/>
       <c r="AY48" s="48"/>
       <c r="AZ48" s="77"/>
       <c r="BA48" s="48"/>
       <c r="BB48" s="48"/>
       <c r="BC48" s="48"/>
       <c r="BD48" s="48"/>
-      <c r="BE48" s="48"/>
+      <c r="BE48" s="91"/>
       <c r="BF48" s="48"/>
       <c r="BG48" s="77"/>
       <c r="BH48" s="79"/>
       <c r="BI48" s="79"/>
       <c r="BJ48" s="79"/>
       <c r="BK48" s="79"/>
-      <c r="BL48" s="79"/>
+      <c r="BL48" s="136"/>
       <c r="BM48" s="48"/>
       <c r="BN48" s="77"/>
       <c r="BO48" s="48"/>
       <c r="BP48" s="48"/>
       <c r="BQ48" s="48"/>
-      <c r="BR48" s="48"/>
+      <c r="BR48" s="91"/>
       <c r="BS48" s="48"/>
       <c r="BT48" s="48"/>
       <c r="BU48" s="77"/>
       <c r="BV48" s="48"/>
       <c r="BW48" s="48"/>
       <c r="BX48" s="48"/>
-      <c r="BY48" s="48"/>
+      <c r="BY48" s="91"/>
       <c r="BZ48" s="48"/>
       <c r="CA48" s="48"/>
       <c r="CB48" s="77"/>
       <c r="CC48" s="48"/>
       <c r="CD48" s="48"/>
       <c r="CE48" s="48"/>
-      <c r="CF48" s="48"/>
+      <c r="CF48" s="91"/>
       <c r="CG48" s="48"/>
       <c r="CH48" s="48"/>
       <c r="CI48" s="77"/>
       <c r="CJ48" s="48"/>
       <c r="CK48" s="48"/>
       <c r="CL48" s="48"/>
-      <c r="CM48" s="48"/>
+      <c r="CM48" s="135"/>
       <c r="CN48" s="48"/>
       <c r="CO48" s="48"/>
       <c r="CP48" s="77"/>
@@ -7718,13 +8011,13 @@
         <v>4.12</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
@@ -7735,83 +8028,83 @@
       <c r="L49" s="48"/>
       <c r="M49" s="48"/>
       <c r="N49" s="48"/>
-      <c r="O49" s="133"/>
+      <c r="O49" s="91"/>
       <c r="P49" s="48"/>
       <c r="Q49" s="48"/>
       <c r="R49" s="77"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
-      <c r="V49" s="133"/>
+      <c r="V49" s="91"/>
       <c r="W49" s="48"/>
       <c r="X49" s="48"/>
       <c r="Y49" s="77"/>
       <c r="Z49" s="77"/>
       <c r="AA49" s="77"/>
       <c r="AB49" s="77"/>
-      <c r="AC49" s="134"/>
+      <c r="AC49" s="92"/>
       <c r="AD49" s="48"/>
       <c r="AE49" s="48"/>
       <c r="AF49" s="77"/>
       <c r="AG49" s="77"/>
       <c r="AH49" s="48"/>
       <c r="AI49" s="48"/>
-      <c r="AJ49" s="48"/>
+      <c r="AJ49" s="135"/>
       <c r="AK49" s="48"/>
       <c r="AL49" s="77"/>
       <c r="AM49" s="48"/>
       <c r="AN49" s="48"/>
       <c r="AO49" s="48"/>
       <c r="AP49" s="48"/>
-      <c r="AQ49" s="48"/>
+      <c r="AQ49" s="91"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="77"/>
       <c r="AT49" s="48"/>
       <c r="AU49" s="48"/>
       <c r="AV49" s="48"/>
       <c r="AW49" s="78"/>
-      <c r="AX49" s="48"/>
+      <c r="AX49" s="91"/>
       <c r="AY49" s="48"/>
       <c r="AZ49" s="77"/>
       <c r="BA49" s="48"/>
       <c r="BB49" s="48"/>
       <c r="BC49" s="48"/>
       <c r="BD49" s="48"/>
-      <c r="BE49" s="48"/>
+      <c r="BE49" s="91"/>
       <c r="BF49" s="48"/>
       <c r="BG49" s="77"/>
       <c r="BH49" s="79"/>
       <c r="BI49" s="79"/>
       <c r="BJ49" s="79"/>
       <c r="BK49" s="79"/>
-      <c r="BL49" s="79"/>
+      <c r="BL49" s="136"/>
       <c r="BM49" s="48"/>
       <c r="BN49" s="77"/>
       <c r="BO49" s="48"/>
       <c r="BP49" s="48"/>
       <c r="BQ49" s="48"/>
-      <c r="BR49" s="48"/>
+      <c r="BR49" s="91"/>
       <c r="BS49" s="48"/>
       <c r="BT49" s="48"/>
       <c r="BU49" s="77"/>
       <c r="BV49" s="48"/>
       <c r="BW49" s="48"/>
       <c r="BX49" s="48"/>
-      <c r="BY49" s="48"/>
+      <c r="BY49" s="91"/>
       <c r="BZ49" s="48"/>
       <c r="CA49" s="48"/>
       <c r="CB49" s="77"/>
       <c r="CC49" s="48"/>
       <c r="CD49" s="48"/>
       <c r="CE49" s="48"/>
-      <c r="CF49" s="48"/>
+      <c r="CF49" s="91"/>
       <c r="CG49" s="48"/>
       <c r="CH49" s="48"/>
       <c r="CI49" s="77"/>
       <c r="CJ49" s="48"/>
       <c r="CK49" s="48"/>
       <c r="CL49" s="48"/>
-      <c r="CM49" s="48"/>
+      <c r="CM49" s="135"/>
       <c r="CN49" s="48"/>
       <c r="CO49" s="48"/>
       <c r="CP49" s="77"/>
@@ -7824,10 +8117,10 @@
         <v>4.13</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E50" s="46" t="s">
         <v>54</v>
@@ -7841,83 +8134,83 @@
       <c r="L50" s="48"/>
       <c r="M50" s="48"/>
       <c r="N50" s="48"/>
-      <c r="O50" s="133"/>
+      <c r="O50" s="91"/>
       <c r="P50" s="48"/>
       <c r="Q50" s="48"/>
       <c r="R50" s="77"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
-      <c r="V50" s="133"/>
+      <c r="V50" s="91"/>
       <c r="W50" s="48"/>
       <c r="X50" s="48"/>
       <c r="Y50" s="77"/>
       <c r="Z50" s="77"/>
       <c r="AA50" s="77"/>
       <c r="AB50" s="77"/>
-      <c r="AC50" s="134"/>
+      <c r="AC50" s="92"/>
       <c r="AD50" s="48"/>
       <c r="AE50" s="48"/>
       <c r="AF50" s="77"/>
       <c r="AG50" s="77"/>
       <c r="AH50" s="48"/>
       <c r="AI50" s="48"/>
-      <c r="AJ50" s="48"/>
+      <c r="AJ50" s="135"/>
       <c r="AK50" s="48"/>
       <c r="AL50" s="77"/>
       <c r="AM50" s="48"/>
       <c r="AN50" s="48"/>
       <c r="AO50" s="48"/>
       <c r="AP50" s="48"/>
-      <c r="AQ50" s="48"/>
+      <c r="AQ50" s="91"/>
       <c r="AR50" s="48"/>
       <c r="AS50" s="77"/>
       <c r="AT50" s="48"/>
       <c r="AU50" s="48"/>
       <c r="AV50" s="48"/>
       <c r="AW50" s="78"/>
-      <c r="AX50" s="48"/>
+      <c r="AX50" s="91"/>
       <c r="AY50" s="48"/>
       <c r="AZ50" s="77"/>
       <c r="BA50" s="48"/>
       <c r="BB50" s="48"/>
       <c r="BC50" s="48"/>
       <c r="BD50" s="48"/>
-      <c r="BE50" s="48"/>
+      <c r="BE50" s="91"/>
       <c r="BF50" s="48"/>
       <c r="BG50" s="77"/>
       <c r="BH50" s="79"/>
       <c r="BI50" s="79"/>
       <c r="BJ50" s="79"/>
       <c r="BK50" s="79"/>
-      <c r="BL50" s="79"/>
+      <c r="BL50" s="136"/>
       <c r="BM50" s="48"/>
       <c r="BN50" s="77"/>
       <c r="BO50" s="48"/>
       <c r="BP50" s="48"/>
       <c r="BQ50" s="48"/>
-      <c r="BR50" s="48"/>
+      <c r="BR50" s="91"/>
       <c r="BS50" s="48"/>
       <c r="BT50" s="48"/>
       <c r="BU50" s="77"/>
       <c r="BV50" s="48"/>
       <c r="BW50" s="48"/>
       <c r="BX50" s="48"/>
-      <c r="BY50" s="48"/>
+      <c r="BY50" s="91"/>
       <c r="BZ50" s="48"/>
       <c r="CA50" s="48"/>
       <c r="CB50" s="77"/>
       <c r="CC50" s="48"/>
       <c r="CD50" s="48"/>
       <c r="CE50" s="48"/>
-      <c r="CF50" s="48"/>
+      <c r="CF50" s="91"/>
       <c r="CG50" s="48"/>
       <c r="CH50" s="48"/>
       <c r="CI50" s="77"/>
       <c r="CJ50" s="48"/>
       <c r="CK50" s="48"/>
       <c r="CL50" s="48"/>
-      <c r="CM50" s="48"/>
+      <c r="CM50" s="135"/>
       <c r="CN50" s="48"/>
       <c r="CO50" s="48"/>
       <c r="CP50" s="77"/>
@@ -7930,13 +8223,13 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
@@ -7947,83 +8240,83 @@
       <c r="L51" s="48"/>
       <c r="M51" s="48"/>
       <c r="N51" s="48"/>
-      <c r="O51" s="133"/>
+      <c r="O51" s="91"/>
       <c r="P51" s="48"/>
       <c r="Q51" s="48"/>
       <c r="R51" s="77"/>
       <c r="S51" s="48"/>
       <c r="T51" s="48"/>
       <c r="U51" s="48"/>
-      <c r="V51" s="133"/>
+      <c r="V51" s="91"/>
       <c r="W51" s="48"/>
       <c r="X51" s="48"/>
       <c r="Y51" s="77"/>
       <c r="Z51" s="77"/>
       <c r="AA51" s="77"/>
       <c r="AB51" s="77"/>
-      <c r="AC51" s="134"/>
+      <c r="AC51" s="92"/>
       <c r="AD51" s="48"/>
       <c r="AE51" s="48"/>
       <c r="AF51" s="77"/>
       <c r="AG51" s="77"/>
       <c r="AH51" s="48"/>
       <c r="AI51" s="48"/>
-      <c r="AJ51" s="48"/>
+      <c r="AJ51" s="135"/>
       <c r="AK51" s="48"/>
       <c r="AL51" s="77"/>
       <c r="AM51" s="48"/>
       <c r="AN51" s="48"/>
       <c r="AO51" s="48"/>
       <c r="AP51" s="48"/>
-      <c r="AQ51" s="48"/>
+      <c r="AQ51" s="91"/>
       <c r="AR51" s="48"/>
       <c r="AS51" s="77"/>
       <c r="AT51" s="48"/>
       <c r="AU51" s="48"/>
       <c r="AV51" s="48"/>
       <c r="AW51" s="78"/>
-      <c r="AX51" s="48"/>
+      <c r="AX51" s="91"/>
       <c r="AY51" s="48"/>
       <c r="AZ51" s="77"/>
       <c r="BA51" s="48"/>
       <c r="BB51" s="48"/>
       <c r="BC51" s="48"/>
       <c r="BD51" s="48"/>
-      <c r="BE51" s="48"/>
+      <c r="BE51" s="91"/>
       <c r="BF51" s="48"/>
       <c r="BG51" s="77"/>
       <c r="BH51" s="79"/>
       <c r="BI51" s="79"/>
       <c r="BJ51" s="79"/>
       <c r="BK51" s="79"/>
-      <c r="BL51" s="79"/>
+      <c r="BL51" s="136"/>
       <c r="BM51" s="48"/>
       <c r="BN51" s="77"/>
       <c r="BO51" s="48"/>
       <c r="BP51" s="48"/>
       <c r="BQ51" s="48"/>
-      <c r="BR51" s="48"/>
+      <c r="BR51" s="91"/>
       <c r="BS51" s="48"/>
       <c r="BT51" s="48"/>
       <c r="BU51" s="77"/>
       <c r="BV51" s="48"/>
       <c r="BW51" s="48"/>
       <c r="BX51" s="48"/>
-      <c r="BY51" s="48"/>
+      <c r="BY51" s="91"/>
       <c r="BZ51" s="48"/>
       <c r="CA51" s="48"/>
       <c r="CB51" s="77"/>
       <c r="CC51" s="48"/>
       <c r="CD51" s="48"/>
       <c r="CE51" s="48"/>
-      <c r="CF51" s="48"/>
+      <c r="CF51" s="91"/>
       <c r="CG51" s="48"/>
       <c r="CH51" s="48"/>
       <c r="CI51" s="77"/>
       <c r="CJ51" s="48"/>
       <c r="CK51" s="48"/>
       <c r="CL51" s="48"/>
-      <c r="CM51" s="48"/>
+      <c r="CM51" s="135"/>
       <c r="CN51" s="48"/>
       <c r="CO51" s="48"/>
       <c r="CP51" s="77"/>
@@ -8045,83 +8338,83 @@
       <c r="L52" s="48"/>
       <c r="M52" s="48"/>
       <c r="N52" s="48"/>
-      <c r="O52" s="133"/>
+      <c r="O52" s="91"/>
       <c r="P52" s="48"/>
       <c r="Q52" s="48"/>
       <c r="R52" s="77"/>
       <c r="S52" s="48"/>
       <c r="T52" s="48"/>
       <c r="U52" s="48"/>
-      <c r="V52" s="133"/>
+      <c r="V52" s="91"/>
       <c r="W52" s="48"/>
       <c r="X52" s="48"/>
       <c r="Y52" s="77"/>
       <c r="Z52" s="77"/>
       <c r="AA52" s="77"/>
       <c r="AB52" s="77"/>
-      <c r="AC52" s="134"/>
+      <c r="AC52" s="92"/>
       <c r="AD52" s="48"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="77"/>
       <c r="AG52" s="48"/>
       <c r="AH52" s="48"/>
       <c r="AI52" s="48"/>
-      <c r="AJ52" s="48"/>
+      <c r="AJ52" s="135"/>
       <c r="AK52" s="48"/>
       <c r="AL52" s="77"/>
       <c r="AM52" s="48"/>
       <c r="AN52" s="48"/>
       <c r="AO52" s="48"/>
       <c r="AP52" s="48"/>
-      <c r="AQ52" s="48"/>
+      <c r="AQ52" s="91"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="77"/>
       <c r="AT52" s="48"/>
       <c r="AU52" s="48"/>
       <c r="AV52" s="48"/>
       <c r="AW52" s="78"/>
-      <c r="AX52" s="48"/>
+      <c r="AX52" s="91"/>
       <c r="AY52" s="48"/>
       <c r="AZ52" s="77"/>
       <c r="BA52" s="48"/>
       <c r="BB52" s="48"/>
       <c r="BC52" s="48"/>
       <c r="BD52" s="48"/>
-      <c r="BE52" s="48"/>
+      <c r="BE52" s="91"/>
       <c r="BF52" s="48"/>
       <c r="BG52" s="77"/>
       <c r="BH52" s="79"/>
       <c r="BI52" s="79"/>
       <c r="BJ52" s="79"/>
       <c r="BK52" s="79"/>
-      <c r="BL52" s="79"/>
+      <c r="BL52" s="136"/>
       <c r="BM52" s="48"/>
       <c r="BN52" s="77"/>
       <c r="BO52" s="48"/>
       <c r="BP52" s="48"/>
       <c r="BQ52" s="48"/>
-      <c r="BR52" s="48"/>
+      <c r="BR52" s="91"/>
       <c r="BS52" s="48"/>
       <c r="BT52" s="48"/>
       <c r="BU52" s="77"/>
       <c r="BV52" s="48"/>
       <c r="BW52" s="48"/>
       <c r="BX52" s="48"/>
-      <c r="BY52" s="48"/>
+      <c r="BY52" s="91"/>
       <c r="BZ52" s="48"/>
       <c r="CA52" s="48"/>
       <c r="CB52" s="77"/>
       <c r="CC52" s="48"/>
       <c r="CD52" s="48"/>
       <c r="CE52" s="48"/>
-      <c r="CF52" s="48"/>
+      <c r="CF52" s="91"/>
       <c r="CG52" s="48"/>
       <c r="CH52" s="48"/>
       <c r="CI52" s="77"/>
       <c r="CJ52" s="48"/>
       <c r="CK52" s="48"/>
       <c r="CL52" s="48"/>
-      <c r="CM52" s="48"/>
+      <c r="CM52" s="135"/>
       <c r="CN52" s="48"/>
       <c r="CO52" s="48"/>
       <c r="CP52" s="77"/>
@@ -8134,7 +8427,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="46"/>
@@ -8147,83 +8440,83 @@
       <c r="L53" s="48"/>
       <c r="M53" s="48"/>
       <c r="N53" s="48"/>
-      <c r="O53" s="133"/>
+      <c r="O53" s="91"/>
       <c r="P53" s="48"/>
       <c r="Q53" s="48"/>
       <c r="R53" s="77"/>
       <c r="S53" s="48"/>
       <c r="T53" s="48"/>
       <c r="U53" s="48"/>
-      <c r="V53" s="133"/>
+      <c r="V53" s="91"/>
       <c r="W53" s="48"/>
       <c r="X53" s="48"/>
       <c r="Y53" s="77"/>
       <c r="Z53" s="48"/>
       <c r="AA53" s="48"/>
       <c r="AB53" s="48"/>
-      <c r="AC53" s="133"/>
+      <c r="AC53" s="91"/>
       <c r="AD53" s="48"/>
       <c r="AE53" s="48"/>
       <c r="AF53" s="77"/>
       <c r="AG53" s="48"/>
       <c r="AH53" s="48"/>
       <c r="AI53" s="48"/>
-      <c r="AJ53" s="48"/>
+      <c r="AJ53" s="135"/>
       <c r="AK53" s="48"/>
       <c r="AL53" s="77"/>
       <c r="AM53" s="48"/>
       <c r="AN53" s="48"/>
       <c r="AO53" s="48"/>
       <c r="AP53" s="48"/>
-      <c r="AQ53" s="48"/>
+      <c r="AQ53" s="91"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="77"/>
       <c r="AT53" s="48"/>
       <c r="AU53" s="48"/>
       <c r="AV53" s="48"/>
       <c r="AW53" s="78"/>
-      <c r="AX53" s="48"/>
+      <c r="AX53" s="91"/>
       <c r="AY53" s="48"/>
       <c r="AZ53" s="77"/>
       <c r="BA53" s="48"/>
       <c r="BB53" s="48"/>
       <c r="BC53" s="48"/>
       <c r="BD53" s="48"/>
-      <c r="BE53" s="48"/>
+      <c r="BE53" s="91"/>
       <c r="BF53" s="48"/>
       <c r="BG53" s="77"/>
       <c r="BH53" s="79"/>
       <c r="BI53" s="79"/>
       <c r="BJ53" s="79"/>
       <c r="BK53" s="79"/>
-      <c r="BL53" s="79"/>
+      <c r="BL53" s="136"/>
       <c r="BM53" s="48"/>
       <c r="BN53" s="77"/>
       <c r="BO53" s="48"/>
       <c r="BP53" s="48"/>
       <c r="BQ53" s="48"/>
-      <c r="BR53" s="48"/>
+      <c r="BR53" s="91"/>
       <c r="BS53" s="48"/>
       <c r="BT53" s="48"/>
       <c r="BU53" s="77"/>
       <c r="BV53" s="48"/>
       <c r="BW53" s="48"/>
       <c r="BX53" s="48"/>
-      <c r="BY53" s="48"/>
+      <c r="BY53" s="91"/>
       <c r="BZ53" s="48"/>
       <c r="CA53" s="48"/>
       <c r="CB53" s="77"/>
       <c r="CC53" s="48"/>
       <c r="CD53" s="48"/>
       <c r="CE53" s="48"/>
-      <c r="CF53" s="48"/>
+      <c r="CF53" s="91"/>
       <c r="CG53" s="48"/>
       <c r="CH53" s="48"/>
       <c r="CI53" s="77"/>
       <c r="CJ53" s="48"/>
       <c r="CK53" s="48"/>
       <c r="CL53" s="48"/>
-      <c r="CM53" s="48"/>
+      <c r="CM53" s="135"/>
       <c r="CN53" s="48"/>
       <c r="CO53" s="48"/>
       <c r="CP53" s="77"/>
@@ -8236,10 +8529,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>54</v>
@@ -8253,83 +8546,83 @@
       <c r="L54" s="48"/>
       <c r="M54" s="48"/>
       <c r="N54" s="48"/>
-      <c r="O54" s="133"/>
+      <c r="O54" s="91"/>
       <c r="P54" s="48"/>
       <c r="Q54" s="48"/>
       <c r="R54" s="77"/>
       <c r="S54" s="48"/>
       <c r="T54" s="48"/>
       <c r="U54" s="48"/>
-      <c r="V54" s="133"/>
+      <c r="V54" s="91"/>
       <c r="W54" s="48"/>
       <c r="X54" s="48"/>
       <c r="Y54" s="77"/>
       <c r="Z54" s="48"/>
       <c r="AA54" s="48"/>
       <c r="AB54" s="48"/>
-      <c r="AC54" s="133"/>
+      <c r="AC54" s="91"/>
       <c r="AD54" s="48"/>
       <c r="AE54" s="48"/>
       <c r="AF54" s="77"/>
       <c r="AG54" s="48"/>
       <c r="AH54" s="48"/>
       <c r="AI54" s="48"/>
-      <c r="AJ54" s="48"/>
+      <c r="AJ54" s="135"/>
       <c r="AK54" s="48"/>
       <c r="AL54" s="77"/>
       <c r="AM54" s="48"/>
       <c r="AN54" s="48"/>
       <c r="AO54" s="77"/>
       <c r="AP54" s="77"/>
-      <c r="AQ54" s="48"/>
+      <c r="AQ54" s="91"/>
       <c r="AR54" s="48"/>
       <c r="AS54" s="77"/>
       <c r="AT54" s="48"/>
       <c r="AU54" s="48"/>
       <c r="AV54" s="48"/>
       <c r="AW54" s="78"/>
-      <c r="AX54" s="48"/>
+      <c r="AX54" s="91"/>
       <c r="AY54" s="48"/>
       <c r="AZ54" s="77"/>
       <c r="BA54" s="48"/>
       <c r="BB54" s="48"/>
       <c r="BC54" s="48"/>
       <c r="BD54" s="48"/>
-      <c r="BE54" s="48"/>
+      <c r="BE54" s="91"/>
       <c r="BF54" s="48"/>
       <c r="BG54" s="77"/>
       <c r="BH54" s="79"/>
       <c r="BI54" s="79"/>
       <c r="BJ54" s="79"/>
       <c r="BK54" s="79"/>
-      <c r="BL54" s="79"/>
+      <c r="BL54" s="136"/>
       <c r="BM54" s="48"/>
       <c r="BN54" s="77"/>
       <c r="BO54" s="48"/>
       <c r="BP54" s="48"/>
       <c r="BQ54" s="48"/>
-      <c r="BR54" s="48"/>
+      <c r="BR54" s="91"/>
       <c r="BS54" s="48"/>
       <c r="BT54" s="48"/>
       <c r="BU54" s="77"/>
       <c r="BV54" s="48"/>
       <c r="BW54" s="48"/>
       <c r="BX54" s="48"/>
-      <c r="BY54" s="48"/>
+      <c r="BY54" s="91"/>
       <c r="BZ54" s="48"/>
       <c r="CA54" s="48"/>
       <c r="CB54" s="77"/>
       <c r="CC54" s="48"/>
       <c r="CD54" s="48"/>
       <c r="CE54" s="48"/>
-      <c r="CF54" s="48"/>
+      <c r="CF54" s="91"/>
       <c r="CG54" s="48"/>
       <c r="CH54" s="48"/>
       <c r="CI54" s="77"/>
       <c r="CJ54" s="48"/>
       <c r="CK54" s="48"/>
       <c r="CL54" s="48"/>
-      <c r="CM54" s="48"/>
+      <c r="CM54" s="135"/>
       <c r="CN54" s="48"/>
       <c r="CO54" s="48"/>
       <c r="CP54" s="77"/>
@@ -8342,13 +8635,13 @@
         <v>5.2</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -8359,83 +8652,83 @@
       <c r="L55" s="48"/>
       <c r="M55" s="48"/>
       <c r="N55" s="48"/>
-      <c r="O55" s="133"/>
+      <c r="O55" s="91"/>
       <c r="P55" s="48"/>
       <c r="Q55" s="48"/>
       <c r="R55" s="77"/>
       <c r="S55" s="48"/>
       <c r="T55" s="48"/>
       <c r="U55" s="48"/>
-      <c r="V55" s="133"/>
+      <c r="V55" s="91"/>
       <c r="W55" s="48"/>
       <c r="X55" s="48"/>
       <c r="Y55" s="77"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
       <c r="AB55" s="48"/>
-      <c r="AC55" s="133"/>
+      <c r="AC55" s="91"/>
       <c r="AD55" s="48"/>
       <c r="AE55" s="48"/>
       <c r="AF55" s="77"/>
       <c r="AG55" s="48"/>
       <c r="AH55" s="48"/>
       <c r="AI55" s="48"/>
-      <c r="AJ55" s="48"/>
+      <c r="AJ55" s="135"/>
       <c r="AK55" s="48"/>
       <c r="AL55" s="77"/>
       <c r="AM55" s="48"/>
       <c r="AN55" s="48"/>
       <c r="AO55" s="77"/>
       <c r="AP55" s="77"/>
-      <c r="AQ55" s="48"/>
+      <c r="AQ55" s="91"/>
       <c r="AR55" s="48"/>
       <c r="AS55" s="77"/>
       <c r="AT55" s="77"/>
       <c r="AU55" s="77"/>
       <c r="AV55" s="77"/>
       <c r="AW55" s="77"/>
-      <c r="AX55" s="48"/>
+      <c r="AX55" s="91"/>
       <c r="AY55" s="48"/>
       <c r="AZ55" s="77"/>
       <c r="BA55" s="77"/>
       <c r="BB55" s="77"/>
       <c r="BC55" s="77"/>
       <c r="BD55" s="77"/>
-      <c r="BE55" s="48"/>
+      <c r="BE55" s="91"/>
       <c r="BF55" s="48"/>
       <c r="BG55" s="77"/>
       <c r="BH55" s="77"/>
       <c r="BI55" s="77"/>
       <c r="BJ55" s="77"/>
       <c r="BK55" s="77"/>
-      <c r="BL55" s="77"/>
+      <c r="BL55" s="92"/>
       <c r="BM55" s="48"/>
       <c r="BN55" s="77"/>
       <c r="BO55" s="77"/>
       <c r="BP55" s="77"/>
       <c r="BQ55" s="77"/>
-      <c r="BR55" s="77"/>
+      <c r="BR55" s="92"/>
       <c r="BS55" s="77"/>
       <c r="BT55" s="48"/>
       <c r="BU55" s="77"/>
       <c r="BV55" s="77"/>
       <c r="BW55" s="77"/>
       <c r="BX55" s="77"/>
-      <c r="BY55" s="77"/>
+      <c r="BY55" s="92"/>
       <c r="BZ55" s="48"/>
       <c r="CA55" s="48"/>
       <c r="CB55" s="82"/>
       <c r="CC55" s="82"/>
       <c r="CD55" s="82"/>
       <c r="CE55" s="82"/>
-      <c r="CF55" s="82"/>
+      <c r="CF55" s="137"/>
       <c r="CG55" s="77"/>
       <c r="CH55" s="48"/>
       <c r="CI55" s="77"/>
       <c r="CJ55" s="77"/>
       <c r="CK55" s="77"/>
       <c r="CL55" s="77"/>
-      <c r="CM55" s="77"/>
+      <c r="CM55" s="138"/>
       <c r="CN55" s="48"/>
       <c r="CO55" s="48"/>
       <c r="CP55" s="77"/>
@@ -9181,17 +9474,17 @@
       <c r="D60" s="68"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="121" t="s">
+      <c r="G60" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-      <c r="M60" s="122"/>
-      <c r="N60" s="122"/>
-      <c r="O60" s="123"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="96"/>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
@@ -9372,15 +9665,15 @@
       <c r="F61" s="19"/>
       <c r="G61" s="23"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="124" t="s">
+      <c r="I61" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="125"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="125"/>
-      <c r="M61" s="125"/>
-      <c r="N61" s="125"/>
-      <c r="O61" s="126"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="99"/>
       <c r="AD61" s="14"/>
       <c r="AE61" s="69"/>
       <c r="AF61" s="69"/>
@@ -9545,17 +9838,17 @@
       <c r="D62" s="68"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="129" t="s">
+      <c r="G62" s="100"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="129"/>
-      <c r="N62" s="129"/>
-      <c r="O62" s="130"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="103"/>
       <c r="AD62" s="14"/>
       <c r="AE62" s="69"/>
       <c r="AF62" s="69"/>
@@ -9720,17 +10013,17 @@
       <c r="D63" s="68"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="103" t="s">
+      <c r="G63" s="131"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="103"/>
-      <c r="N63" s="103"/>
-      <c r="O63" s="104"/>
+      <c r="J63" s="129"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="130"/>
       <c r="AD63" s="14"/>
       <c r="AE63" s="69"/>
       <c r="AF63" s="69"/>
@@ -10066,17 +10359,17 @@
       <c r="D65" s="68"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="103" t="s">
+      <c r="G65" s="133"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="104"/>
+      <c r="J65" s="129"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="130"/>
       <c r="AD65" s="14"/>
       <c r="AE65" s="14"/>
       <c r="AF65" s="14"/>
@@ -10701,11 +10994,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G60:O60"/>
-    <mergeCell ref="I61:O61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="BN13:CR14"/>
+    <mergeCell ref="F13:AI14"/>
+    <mergeCell ref="I65:O65"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:O63"/>
+    <mergeCell ref="G65:H65"/>
     <mergeCell ref="AR12:AW12"/>
     <mergeCell ref="AX12:BC12"/>
     <mergeCell ref="B13:B15"/>
@@ -10713,12 +11007,11 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="AJ13:BM14"/>
-    <mergeCell ref="BN13:CR14"/>
-    <mergeCell ref="F13:AI14"/>
-    <mergeCell ref="I65:O65"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:O63"/>
-    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G60:O60"/>
+    <mergeCell ref="I61:O61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:O62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
